--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,28 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A23EFF-B8BF-4C5C-AECC-D0C428381739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EE5A2B-DE11-4295-B9E0-EC1C2243B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="验证用例" sheetId="2" r:id="rId2"/>
+    <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
+    <sheet name="2021_小机软件" sheetId="1" r:id="rId2"/>
+    <sheet name="验证用例" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021'!$A$1:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$K$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1774,6 +1782,254 @@
   </si>
   <si>
     <t>第二次scan的时候可以在中间圆盘处正常显示扫描的图像</t>
+  </si>
+  <si>
+    <t>AutoReviewHaze是否可以在缺陷检查时，直接得到</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现在是auto haze要单独执行，如果用户需要在执行检查缺陷时同时得到，可以吗？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通过work_type设置不同的检查范围，以及AF的位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如果是SLC基板，在A面边的位置有10mm左右的斜面
+这个不需要检查，不能在这个位置内AF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2号机使用SLC基板时，概率性扫描到右侧时出现加速度过大导致的出错</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可能是lodas.ini中的S_RATIO设置过大导致，
+如果是100的话，S大，加速度瞬间可能过大，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0的话，加速度是不变的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BI12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出现缺陷溢出，但实际显示为0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>并且除非重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP，否则一直存在</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoya日本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 defect本来是52万，但如果打开了缺陷文档 ，会被修改
+2 修改方案是在开始检查时，如果不是52万，则强制所有数据重新分配
+3 版本已经发布，待有问题再跟踪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lodas_hoya_Install_20211008.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lodas_desktop_Install_20211008.zip
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 可以auto scan haze
+2 可以通过ini配置
+3 可以保存并读取文件</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>ing</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为多线程，界面操作导致的崩溃，已经修改完成</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC精度差 是问题37</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BI8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liver</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经有，需要将像素面积转化成实际面积</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通过网上的对焦算法仿真，取右上脚的区域，
+不对焦大约是3分；对上焦之后是5分，可以尝试开发
+1、Tenengrad梯度方法
+2、Laplacian梯度方法
+一、对焦算法结构
+1、获得当前帧图像
+2、图像清晰度计算
+3、下一步马达位置计算
+4、马达驱动
+　　驱动马达之后，从新获得新的帧图像，继续清晰度计算，获得信息对焦位置，不断循环，直到找到最高清晰度的马达位置，对焦完成。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2165,11 +2421,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4A92-1225-4E61-8521-C69032BFE3DF}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="55.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.5">
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51.75">
+      <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2179,7 +2503,7 @@
     <col min="3" max="3" width="70" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="48" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="32.375" customWidth="1"/>
     <col min="11" max="11" width="22.125" customWidth="1"/>
@@ -2204,7 +2528,7 @@
       <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -2239,7 +2563,7 @@
       <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>199</v>
       </c>
       <c r="H2" s="6">
@@ -2291,7 +2615,7 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="3"/>
@@ -2315,7 +2639,7 @@
       <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="3"/>
@@ -2339,7 +2663,7 @@
       <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3"/>
@@ -2370,7 +2694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="69.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2388,6 +2712,12 @@
       </c>
       <c r="F8" t="s">
         <v>76</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2434,7 +2764,7 @@
       <c r="F10" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="6">
@@ -2466,7 +2796,7 @@
       <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="6">
@@ -2498,7 +2828,7 @@
       <c r="F12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="6">
@@ -2530,7 +2860,7 @@
       <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="6">
@@ -2562,7 +2892,7 @@
       <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="6">
@@ -2594,7 +2924,7 @@
       <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="7">
@@ -2626,7 +2956,7 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="6">
@@ -2658,7 +2988,7 @@
       <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="6">
@@ -2690,7 +3020,7 @@
       <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="7">
@@ -2722,7 +3052,7 @@
       <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H19" s="3"/>
@@ -2749,7 +3079,7 @@
       <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H20" s="7">
@@ -2781,7 +3111,7 @@
       <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="3"/>
@@ -2808,6 +3138,12 @@
       <c r="F22" t="s">
         <v>77</v>
       </c>
+      <c r="G22" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
@@ -2828,6 +3164,9 @@
       <c r="F23" t="s">
         <v>77</v>
       </c>
+      <c r="I23" s="3" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -2845,6 +3184,9 @@
       <c r="F24" t="s">
         <v>77</v>
       </c>
+      <c r="I24" s="3" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
@@ -2862,6 +3204,12 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -2879,6 +3227,12 @@
       <c r="F26" t="s">
         <v>77</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="34.5">
       <c r="A27">
@@ -2896,6 +3250,12 @@
       <c r="F27" t="s">
         <v>77</v>
       </c>
+      <c r="G27" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -2916,7 +3276,7 @@
       <c r="F28" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2936,6 +3296,9 @@
       <c r="F29" t="s">
         <v>76</v>
       </c>
+      <c r="I29" s="3" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
@@ -2965,7 +3328,7 @@
         <v>211</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>209</v>
@@ -2997,7 +3360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3017,39 +3380,85 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="D34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="199.5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="C35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="I35" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="D37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3059,21 +3468,82 @@
       <c r="C38" s="3" t="s">
         <v>222</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="34.5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="84">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="6">
+        <v>44477</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BE7F8C-74A0-4FF5-9FC0-E335D6224AB4}">
   <dimension ref="B1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:F56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EE5A2B-DE11-4295-B9E0-EC1C2243B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007512EB-4CFB-4D98-8D82-5C90AA247B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="验证用例" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="320">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -289,22 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>未</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发布</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自动化操作增加autoreview</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,10 +378,6 @@
   </si>
   <si>
     <t>已经完成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未发布</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1917,21 +1897,6 @@
       <t>1 可以auto scan haze
 2 可以通过ini配置
 3 可以保存并读取文件</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>ing</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2031,12 +1996,235 @@
 　　驱动马达之后，从新获得新的帧图像，继续清晰度计算，获得信息对焦位置，不断循环，直到找到最高清晰度的马达位置，对焦完成。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>不可更改参数，限制修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百盛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仪器校验，对标方法详细操作说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比对操作说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试参数设置说明及操作步骤说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试其它尺寸测试文件的制作方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备日常保养方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>界面主要操作步骤汉化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已经发布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lodas_offline_Install_20211006.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>撒了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准粒子，如何对标</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月初完成说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月初发布版本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月初发布说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已经提供说明书，在manul中可以找到</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>远程通话，协助解决
+11月初完成说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同29，待开发，可以先开发主界面
+11月初发布第一个版本，做出主界面汉化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/10/11：已经提供，但是其中还有些日语，可能有描述不对的地方，需要修改后，再提供
+11月初完成说明书修补</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非软件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+  </si>
+  <si>
+    <t>软件性能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">代码修改完成，但是没有打开该功能，因为有一个疑问
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e在非haze时，如何还原？Wave与scan review的配置略有不同</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オサム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ボッ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウイチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イカガ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2085,6 +2273,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2112,7 +2308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2142,6 +2338,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2451,13 +2648,13 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>26</v>
@@ -2468,18 +2665,18 @@
     </row>
     <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="51.75">
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2490,10 +2687,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2501,15 +2699,16 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="41" style="5" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="48" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="32.375" customWidth="1"/>
-    <col min="11" max="11" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="48" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="32.375" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2520,31 +2719,34 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="35.25">
+    <row r="2" spans="1:12" ht="35.25" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2554,984 +2756,1249 @@
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="6">
         <v>44468</v>
       </c>
-      <c r="I2" t="s">
-        <v>210</v>
-      </c>
       <c r="J2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33">
+        <v>208</v>
+      </c>
+      <c r="K2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="69.75">
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="69.75" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>44469</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>44469</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>44469</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>44469</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>44469</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>44468</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>44469</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>44469</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="7">
         <v>44468</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="7">
         <v>44468</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="34.5">
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="34.5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
       <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
       <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
       <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="34.5">
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34.5" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
       <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="34.5">
+    </row>
+    <row r="29" spans="1:11" ht="34.5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
         <v>212</v>
       </c>
-      <c r="C32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
         <v>35</v>
       </c>
-      <c r="F32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="53.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="199.5">
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="199.5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="I35" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="J35" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F37" t="s">
         <v>35</v>
       </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" t="s">
         <v>35</v>
       </c>
-      <c r="F38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="34.5">
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="34.5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39" t="s">
-        <v>293</v>
+        <v>313</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="84">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="84" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="I40" s="6">
+        <v>44477</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H40" s="6">
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" s="6">
         <v>44477</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J40" t="s">
-        <v>282</v>
+      <c r="J43" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="51" hidden="1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="34.5" hidden="1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="34.5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L47" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="软件"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="doing"/>
+        <filter val="hold"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3543,7 +4010,7 @@
   <dimension ref="B1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3558,694 +4025,694 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="51">
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51">
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="51">
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="51">
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="51">
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="51">
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="51">
       <c r="C11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="51">
       <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="51">
       <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="51">
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="C16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="51">
       <c r="C17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="51">
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="117">
       <c r="C19" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="117">
       <c r="C20" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="133.5">
       <c r="C21" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="133.5">
       <c r="C22" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="133.5">
       <c r="C23" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="84">
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="84">
       <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="84">
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="84">
       <c r="C27" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="67.5">
       <c r="C28" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="67.5">
       <c r="C29" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="54">
       <c r="C30" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="54">
       <c r="C31" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="88.5">
       <c r="C32" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="123.75">
       <c r="C33" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="51">
       <c r="C34" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="34.5">
       <c r="C35" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="34.5">
       <c r="C36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="34.5">
       <c r="C37" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="34.5">
       <c r="C38" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="34.5">
       <c r="C39" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="34.5">
       <c r="C40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="123.75">
       <c r="C41" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="117">
       <c r="B42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="E42" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="117">
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="51">
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="34.5">
       <c r="B45" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="34.5">
       <c r="B46" s="11"/>
       <c r="C46" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="34.5">
       <c r="B47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="34.5">
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="34.5">
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="34.5">
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007512EB-4CFB-4D98-8D82-5C90AA247B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12247649-13D0-430F-B310-400BA98969D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="328">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1515,10 +1515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>获取到用户数据之后，与用户交流定位</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>aging时如果点击stop,再点击START，数据被清空</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1981,6 +1977,258 @@
       </rPr>
       <t>已经有，需要将像素面积转化成实际面积</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可更改参数，限制修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百盛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仪器校验，对标方法详细操作说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比对操作说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试参数设置说明及操作步骤说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试其它尺寸测试文件的制作方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备日常保养方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>界面主要操作步骤汉化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已经发布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lodas_offline_Install_20211006.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>撒了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准粒子，如何对标</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月初完成说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月初发布版本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月初发布说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已经提供说明书，在manul中可以找到</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>远程通话，协助解决
+11月初完成说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同29，待开发，可以先开发主界面
+11月初发布第一个版本，做出主界面汉化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/10/11：已经提供，但是其中还有些日语，可能有描述不对的地方，需要修改后，再提供
+11月初完成说明书修补</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非软件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>说明书</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件性能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暂不处理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当前通过slice的大小作为area count的标准，有误差
+其它的算法，merge classify需要再讨论确定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/10/12：用户暂时未反馈，先关闭，有新问题，以新问题跟踪
+2021/9/28：尚未确认清楚问题，获取到用户数据之后，与用户交流定位。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新功能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新功能 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新功能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修改点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客户疑问</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2021/10/11：代码修改完成，但是没有打开该功能，因为有一个疑问
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e在非haze时，如何还原？Wave与scan review的配置略有不同</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オサム</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゼ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ボッ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウノウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ユウイチ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イカガ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 解决保存时bitmap占用句柄导致的无法保存问题</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/10/11：完成了接口集成
+</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1993,230 +2241,15 @@
 2、图像清晰度计算
 3、下一步马达位置计算
 4、马达驱动
-　　驱动马达之后，从新获得新的帧图像，继续清晰度计算，获得信息对焦位置，不断循环，直到找到最高清晰度的马达位置，对焦完成。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不可更改参数，限制修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>百盛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仪器校验，对标方法详细操作说明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比对操作说明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>测试参数设置说明及操作步骤说明书</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>测试其它尺寸测试文件的制作方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>设备日常保养方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>界面主要操作步骤汉化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>已经发布</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lodas_offline_Install_20211006.zip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>撒了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准粒子，如何对标</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11月初完成说明书</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11月初发布版本</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11月初发布说明书</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>已经提供说明书，在manul中可以找到</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>远程通话，协助解决
-11月初完成说明书</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同29，待开发，可以先开发主界面
-11月初发布第一个版本，做出主界面汉化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/10/11：已经提供，但是其中还有些日语，可能有描述不对的地方，需要修改后，再提供
-11月初完成说明书修补</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>问题类型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>软件</t>
-  </si>
-  <si>
-    <t>软件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非软件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>说明书</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>软</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>件</t>
-    </r>
-  </si>
-  <si>
-    <t>软件性能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">代码修改完成，但是没有打开该功能，因为有一个疑问
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e在非haze时，如何还原？Wave与scan review的配置略有不同</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オサム</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゼ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ボッ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒラク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウノウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>イン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ユウイチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ギ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ザイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>イカガ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ヨ</t>
-    </rPh>
+　　驱动马达之后，从新获得新的帧图像，继续清晰度计算，获得信息对焦位置，不断循环，直到找到最高清晰度的马达位置，对焦完成。
+开发内容：
+CCD部分：
+1 根据新的SDK集成DLL，替换旧的DLL
+2 DLL中要提供bitmap获取接口
+对焦算法部分
+1 算法打分接口
+驱动马达部分
+1移动算法</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2276,10 +2309,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Microsoft YaHei"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2665,18 +2697,18 @@
     </row>
     <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="51.75">
       <c r="B3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2690,8 +2722,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2719,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>21</v>
@@ -2773,7 +2805,7 @@
         <v>44468</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
         <v>198</v>
@@ -2790,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
@@ -2840,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -2884,10 +2916,10 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="34.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2908,6 +2940,9 @@
       </c>
       <c r="G7" t="s">
         <v>74</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" hidden="1">
@@ -2931,10 +2966,10 @@
         <v>74</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2948,7 +2983,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -2958,6 +2993,9 @@
       </c>
       <c r="G9" t="s">
         <v>75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="3" t="s">
@@ -2995,7 +3033,7 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1">
@@ -3028,7 +3066,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1">
@@ -3061,7 +3099,7 @@
         <v>39</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1">
@@ -3094,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1">
@@ -3127,7 +3165,7 @@
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1">
@@ -3193,7 +3231,7 @@
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1">
@@ -3226,7 +3264,7 @@
         <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1">
@@ -3259,7 +3297,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1">
@@ -3273,7 +3311,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>23</v>
@@ -3322,7 +3360,7 @@
         <v>39</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1">
@@ -3336,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
@@ -3355,7 +3393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34.5">
+    <row r="22" spans="1:11" ht="34.5" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3366,7 +3404,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>30</v>
@@ -3378,7 +3416,7 @@
         <v>75</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
@@ -3389,13 +3427,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>30</v>
@@ -3407,7 +3445,7 @@
         <v>75</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3418,7 +3456,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>29</v>
@@ -3430,7 +3468,7 @@
         <v>75</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1">
@@ -3450,10 +3488,10 @@
         <v>75</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
@@ -3473,10 +3511,10 @@
         <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34.5" hidden="1">
@@ -3496,13 +3534,13 @@
         <v>75</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:11" ht="67.5" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3513,7 +3551,7 @@
         <v>200</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>29</v>
@@ -3525,21 +3563,24 @@
         <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="34.5">
+        <v>317</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="34.5" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>31</v>
@@ -3547,8 +3588,11 @@
       <c r="G29" t="s">
         <v>74</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="J29" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3556,16 +3600,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
@@ -3579,16 +3623,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
@@ -3602,16 +3646,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3625,16 +3669,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -3643,18 +3687,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="53.25">
+    <row r="34" spans="1:11" ht="69.75">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F34" t="s">
         <v>35</v>
@@ -3663,24 +3707,24 @@
         <v>74</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="199.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="315">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
@@ -3688,9 +3732,11 @@
       <c r="G35" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3698,16 +3744,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>317</v>
+        <v>290</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
@@ -3716,7 +3762,7 @@
         <v>74</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3724,13 +3770,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>317</v>
+        <v>217</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
@@ -3744,16 +3790,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3767,19 +3813,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" t="s">
         <v>289</v>
-      </c>
-      <c r="F39" t="s">
-        <v>290</v>
       </c>
       <c r="G39" t="s">
         <v>74</v>
@@ -3790,31 +3836,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" t="s">
         <v>274</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G40" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I40" s="6">
         <v>44477</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3822,48 +3868,48 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>317</v>
+        <v>291</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G41" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
         <v>74</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1">
@@ -3871,95 +3917,95 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
         <v>74</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I43" s="6">
         <v>44477</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="51" hidden="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="51">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
         <v>74</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="34.5" hidden="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="34.5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
         <v>74</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G46" t="s">
         <v>74</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34.5">
@@ -3967,35 +4013,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G47" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L47" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="软件"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="9">
       <filters blank="1">
         <filter val="doing"/>
-        <filter val="hold"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4506,213 +4546,213 @@
     </row>
     <row r="42" spans="2:6" ht="117">
       <c r="B42" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="117">
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="51">
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="34.5">
       <c r="B45" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="34.5">
       <c r="B46" s="11"/>
       <c r="C46" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="34.5">
       <c r="B47" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="34.5">
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="34.5">
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="34.5">
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12247649-13D0-430F-B310-400BA98969D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E93F8-5D85-428D-81E3-0FD7B36941A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="331">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2250,6 +2250,18 @@
 1 算法打分接口
 驱动马达部分
 1移动算法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waiting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>镜头撞到基板</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2720,10 +2732,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2833,8 +2845,11 @@
       <c r="G3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2860,8 +2875,11 @@
         <v>61</v>
       </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2887,6 +2905,9 @@
         <v>60</v>
       </c>
       <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="6" spans="1:12" hidden="1">
       <c r="A6">
@@ -2919,7 +2940,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="34.5">
+    <row r="7" spans="1:12" ht="34.5" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2943,6 +2964,9 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>316</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" hidden="1">
@@ -3617,8 +3641,11 @@
       <c r="G30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3640,8 +3667,11 @@
       <c r="G31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3663,8 +3693,11 @@
       <c r="G32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3685,6 +3718,9 @@
       </c>
       <c r="G33" t="s">
         <v>74</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="69.75">
@@ -3709,6 +3745,9 @@
       <c r="H34" s="8" t="s">
         <v>324</v>
       </c>
+      <c r="J34" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="315">
       <c r="A35">
@@ -3736,7 +3775,7 @@
         <v>326</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3784,8 +3823,11 @@
       <c r="G37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3807,8 +3849,11 @@
       <c r="G38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="34.5">
+      <c r="J38" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="34.5" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3829,6 +3874,9 @@
       </c>
       <c r="G39" t="s">
         <v>74</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="84" hidden="1">
@@ -3885,6 +3933,9 @@
       <c r="H41" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="J41" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
@@ -3911,6 +3962,9 @@
       <c r="H42" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="J42" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="43" spans="1:11" hidden="1">
       <c r="A43">
@@ -3960,6 +4014,9 @@
       <c r="H44" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="J44" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="34.5">
       <c r="A45">
@@ -3983,7 +4040,9 @@
       <c r="H45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
@@ -4007,6 +4066,9 @@
       <c r="H46" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="J46" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="34.5">
       <c r="A47">
@@ -4030,11 +4092,22 @@
       <c r="H47" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="J47" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L47" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="doing"/>
       </filters>
     </filterColumn>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E93F8-5D85-428D-81E3-0FD7B36941A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF6D0C-F579-438B-90D2-23EA2DA08E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="验证用例" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="334">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2262,6 +2262,32 @@
   </si>
   <si>
     <t>镜头撞到基板</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z轴往前冲的问题，以往解决的问题
+1 极性设置出错会往前冲
+2 断线的情况下， 1月份已经合入版本
+当前是在CCD调节过程中出现撞的情况</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>oing</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2731,11 +2757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2790,7 +2815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.25" hidden="1">
+    <row r="2" spans="1:12" ht="35.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2879,7 +2904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2909,7 +2934,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2940,7 +2965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="34.5" hidden="1">
+    <row r="7" spans="1:12" ht="34.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2969,7 +2994,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="69.75" hidden="1">
+    <row r="8" spans="1:12" ht="69.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3027,7 +3052,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3060,7 +3085,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3093,7 +3118,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3126,7 +3151,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3159,7 +3184,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3192,7 +3217,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3225,7 +3250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3258,7 +3283,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3291,7 +3316,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3324,7 +3349,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3354,7 +3379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3387,7 +3412,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3417,7 +3442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34.5" hidden="1">
+    <row r="22" spans="1:11" ht="34.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3495,7 +3520,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3518,7 +3543,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3541,7 +3566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34.5" hidden="1">
+    <row r="27" spans="1:11" ht="34.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3564,7 +3589,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="67.5" hidden="1">
+    <row r="28" spans="1:11" ht="67.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3593,7 +3618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="34.5" hidden="1">
+    <row r="29" spans="1:11" ht="34.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3645,7 +3670,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3671,7 +3696,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3697,7 +3722,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3827,7 +3852,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3853,7 +3878,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34.5" hidden="1">
+    <row r="39" spans="1:11" ht="34.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3879,7 +3904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="84" hidden="1">
+    <row r="40" spans="1:11" ht="84">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3966,7 +3991,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4096,22 +4121,31 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="67.5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="C48" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L47" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="doing"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF6D0C-F579-438B-90D2-23EA2DA08E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA02EF1-012F-4FFB-AA83-2AD62AB752E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="验证用例" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="352">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2265,29 +2265,176 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>win7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>oing</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lodas_register工程修复</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hading功能无效</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>工程在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>driver_product下mini_controller为基础上</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 工程更新，tools下的pcie_controller
+2 FPGA发现有BUG，代码更新并写出BUG说明，再测试</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Z轴往前冲的问题，以往解决的问题
 1 极性设置出错会往前冲
 2 断线的情况下， 1月份已经合入版本
-当前是在CCD调节过程中出现撞的情况</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>oing</t>
-    </r>
+当前是在CCD调节过程中出现撞的情况
+通过代码分析可能是ini的配置问题，需要进一步跟踪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2号机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2021/10/15：可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过修改recipe实现，目前暂不修改代码</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2021/10/15：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通过S_RATIO的修改，以及加速度的保护值加大，基本可以解决
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2号机使用SLC基板时，假缺陷增加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修改了TAKE_BACK,之后出现</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>non</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2021/10/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:现场解决时问题未复现，暂时先挂起</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edge search时，Y如果失败，第二次时X必然失败</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edge search时结束之后，有时候所有的速度会变成edge search的速度，非常慢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review ccd时，手动的上下左右移动，X2轴的offset没有考虑进去，导致到了边缘1400后，再无法移动，X2目标到不了</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2689,16 +2836,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4A92-1225-4E61-8521-C69032BFE3DF}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="55.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
+    <col min="7" max="7" width="62.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2740,13 +2889,81 @@
       <c r="C2" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="51.75">
+      <c r="D2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44487</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="53.25">
       <c r="B3" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>271</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34.5">
+      <c r="B6" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34.5">
+      <c r="B7" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2757,10 +2974,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2815,7 +3033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.25">
+    <row r="2" spans="1:12" ht="35.25" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2934,7 +3152,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2994,7 +3212,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="69.75">
+    <row r="8" spans="1:12" ht="69.75" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3052,7 +3270,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3085,7 +3303,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3118,7 +3336,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3151,7 +3369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3184,7 +3402,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3217,7 +3435,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3250,7 +3468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3283,7 +3501,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3316,7 +3534,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3379,7 +3597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3442,7 +3660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34.5">
+    <row r="22" spans="1:11" ht="34.5" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3520,7 +3738,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3543,7 +3761,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3566,7 +3784,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34.5">
+    <row r="27" spans="1:11" ht="34.5" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3589,7 +3807,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="67.5">
+    <row r="28" spans="1:11" ht="67.5" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3829,7 +4047,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3849,7 +4067,7 @@
         <v>75</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>328</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3904,7 +4122,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="84">
+    <row r="40" spans="1:11" ht="84" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3991,7 +4209,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4121,7 +4339,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="67.5">
+    <row r="48" spans="1:11" ht="84" hidden="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4129,10 +4347,10 @@
         <v>330</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>275</v>
@@ -4141,11 +4359,77 @@
         <v>74</v>
       </c>
       <c r="J48" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="C49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="34.5" hidden="1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="BI12"/>
+        <filter val="BI8"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="doing"/>
+        <filter val="hold"/>
+        <filter val="waiting"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4157,7 +4441,7 @@
   <dimension ref="B1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA02EF1-012F-4FFB-AA83-2AD62AB752E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F292ED2-18DF-4743-8333-FCA2DF59C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
     <sheet name="2021_小机软件" sheetId="1" r:id="rId2"/>
-    <sheet name="验证用例" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$50</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="189">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -456,1050 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全自动化INSPECTION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>验证用例</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>开机初始化之后，是否可以直接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择autoAF</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机初始化之后，如果没有选择autoAF,点击SP</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可以直接选择autoAF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>len跑到sp的位置，动作结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开始初始化之后，选择autoAF,点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>开机初始化在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>autoAF模式下，点击START</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开机初始化在非autoAF模式下，点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>回到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>SP位置</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_2</t>
-  </si>
-  <si>
-    <t>AutoAF_3</t>
-  </si>
-  <si>
-    <t>AutoAF_4</t>
-  </si>
-  <si>
-    <t>AutoAF_5</t>
-  </si>
-  <si>
-    <t>AutoAF_6</t>
-  </si>
-  <si>
-    <t>AutoAF_7</t>
-  </si>
-  <si>
-    <t>AutoAF_8</t>
-  </si>
-  <si>
-    <t>AutoAF_9</t>
-  </si>
-  <si>
-    <t>AutoAF_10</t>
-  </si>
-  <si>
-    <t>AutoAF_11</t>
-  </si>
-  <si>
-    <t>AGING开启时，在autoAF模式下，点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGING开启时，非在autoAF模式下，点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_12</t>
-  </si>
-  <si>
-    <t>AutoAF_13</t>
-  </si>
-  <si>
-    <t>AGING开启时，在autoAF模式下，点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGING开启时，非在autoAF模式下，点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回到SP位置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CBS修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CBS_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>验证步骤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_14</t>
-  </si>
-  <si>
-    <t>AutoAF_15</t>
-  </si>
-  <si>
-    <t>AutoAF_16</t>
-  </si>
-  <si>
-    <t>AutoAF_17</t>
-  </si>
-  <si>
-    <t>AGING开启时，在autoAF模式下，检查过程中点击STOP,再点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 autoAF
-2 回到SP位置开始检查
-3 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 autoAF
-2 回到之前检查的位置开始检查
-3 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGING开启时，在autoAF模式下，检查过程中点击STOP,再点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGING开启时，非在autoAF模式下，检查过程中点击STOP,再点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGING开启时，非在autoAF模式下，检查过程中点击STOP,再点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 无autoAF过程
-2 回到SP位置开始检查
-3 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 无autoAF过程
-2 回到之前检查的位置开始检查
-3 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 autoAF
-1 到SP位置开始检查
-3 自动化INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 autoAF
-2 到SP位置，
-3 自动化INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 回到SP位置开始检查
-2 无autoAF过程
-3 INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 autoAF 
-2 回到SP的位置开始检查
-3 INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 autoAF
-2 回到上次STOP的位置开始检查
-3 INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开机初始化在autoAF模式下，检查过程中点击STOP，footon，再点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开机初始化在autoAF模式下，检查过程中点击STOP，footon,再点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开机初始化在非autoAF模式下，检查过程中点击STOP，再点击SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开机初始化在非autoAF模式下，检查过程中点击STOP，再点击START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 无autoAF过程
-2 回到上次STOP的位置开始检查
-3 INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在不配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，INSPTECTION</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，无merge时INSPTECTION</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有merge时INSPTECTION</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在配置AutoCBS的情况下，inspection，选择Show RAW，再重新inspection</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 第一遍inspection显示的是lpd的结果
-2 选择Show RAW之后，显示的是RAW结果，LPD显示清零
-3 第二遍inspection时，自动切换回Show LPD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CBS_2</t>
-  </si>
-  <si>
-    <t>CBS_3</t>
-  </si>
-  <si>
-    <t>CBS_4</t>
-  </si>
-  <si>
-    <t>CBS_5</t>
-  </si>
-  <si>
-    <t>CBS_6</t>
-  </si>
-  <si>
-    <t>CBS_7</t>
-  </si>
-  <si>
-    <t>CBS_8</t>
-  </si>
-  <si>
-    <t>CBS_9</t>
-  </si>
-  <si>
-    <t>CBS_10</t>
-  </si>
-  <si>
-    <r>
-      <t>在不配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，点击Recalc，再做Show RAW和ShowLPD的反复切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 重新计算 ，并显示Show LPD
-右侧LPD显示
-LPD柱状图显示
-2 切换到ShowRAW之后，显示的是RAW的map，两个LPD清零
-3 切换到ShowLPD时，显示的是LPD相关map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，点击Recalc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，再做Show RAW和ShowLPD的反复切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在不配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有的列配置为不显示，点击Recalc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，再做Show RAW和ShowLPD的反复切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 重新计算 ，并显示Show LPD
-   右侧LPD只显示配置中勾选的列
-   LPD柱状图显示配置中勾选的列
-2 切换到ShowRAW之后，显示的是RAW的map，两个LPD清零
-3 切换到ShowLPD时，显示的是LPD相关map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有的列配置为不显示，点击Recalc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，再做Show RAW和ShowLPD的反复切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在不配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，全部列配置不显示，点击Recalc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，再做Show RAW和ShowLPD的反复切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 重新计算 ，并显示Show LPD
-   无数据显示
-2 切换到ShowRAW之后，显示的是RAW的map，两个LPD清零
-3 切换到ShowLPD时，显示的是LPD相关map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，全部列配置不显示，点击Recalc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，再做Show RAW和ShowLPD的反复切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1 显示切换到ShowRAW
-2 右侧LPD显示全部清0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说选择了LPD柱状图，全部为0</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在不配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下,先切换到ShowLPD,再INSPTECTION</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CBS_11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1 显示Show LPD
-2 在开始之前右侧LPD显示全部清0
-3 inspection结束之后，右侧LPD显示结果，与柱状图保持一致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3 LPD柱状图在实时更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4 结果map文件生成，有对应的右侧LPD和LPD柱状图</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0 显示Show LPD
-1 在开始之后右侧LPD显示全部清0
-2 inspection结束之后，右侧LPD显示结果，与柱状图保持一致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3 LPD柱状图在实时更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4 结果生成两个map文件
-5 无merge的map文件对应无merge的右侧LPD和LPD柱状图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6 有merge的map文件对应有merge的右侧LPD和LPD柱状图</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，无merge时INSPTECTION之后，做过滤条件的修改Slice的修改</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CBS_12</t>
-  </si>
-  <si>
-    <t>CBS_13</t>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，无merge时INSPTECTION之后，做过滤条件的修改area的修改</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>过滤条件修改后，LPD的结果也会随之变化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有merge时INSPTECTION之后，做过滤条件的修改Slice的修改</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有merge时INSPTECTION之后，做过滤条件的修改area的修改</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有merge时INSPTECTION之后，选择到非merge数据，做过滤条件的修改Slice的修改</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，有merge时INSPTECTION之后，选择到非merge数据，做过滤条件的修改area的修改</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CBS_14</t>
-  </si>
-  <si>
-    <t>CBS_15</t>
-  </si>
-  <si>
-    <t>CBS_16</t>
-  </si>
-  <si>
-    <t>CBS_17</t>
-  </si>
-  <si>
-    <t>CBS_18</t>
-  </si>
-  <si>
-    <r>
-      <t>在配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>AutoCBS的情况下，配置aging,有merge时INSPTECTION</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_18</t>
-  </si>
-  <si>
-    <t>AutoAF_19</t>
-  </si>
-  <si>
-    <t>AutoAF_20</t>
-  </si>
-  <si>
-    <t>autoAF模式下，从AGING检查切换到非AGING检查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>准备条件：
-AGING功能开启，设置至少2次；autoAF开启，footon状态，没有检查中断的情况
-1 点击SP，并观察执行结果
-2 关闭AGING
-3 footon
-4 点击SP，并观察执行结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>步骤1时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    3 AGING模式INSPECTION运行，直到正常结束
-步骤4时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    3 非AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_21</t>
-  </si>
-  <si>
-    <t>autoAF模式下，从非AGING检查切换到AGING检查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>准备条件：
-AGING功能关闭；autoAF开启，footon状态，没有检查中断的情况
-1 点击SP，并观察执行结果
-2 打开AGING，至少设置两次
-3 footon
-5 点击SP，并观察执行结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>步骤1时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    3 非AGING模式INSPECTION运行，直到正常结束
-步骤4时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    4 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在autoAF模式下，AGING检查，切换recipe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>准备条件：
-AGING功能开启，设置至少2次；autoAF开启，footon状态，没有检查中断的
-1 点击SP，并观察执行结果
-2 切换recipe
-3 footon
-4 点击SP，并观察执行结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>步骤1时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    3 AGING模式INSPECTION运行，直到正常结束
-步骤4时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    3 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>准备条件：
-重新打开APP,initlizer执行结束
-1 修改aging为使能
-2 修改aging次数至少大于等于2次
-3 auto AF使能
-4 执行recipe选择
-5 点击SP，并观察执行结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>开机初始化之后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择recipe之前，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否可以直接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置AGING功能</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>开机初始化之后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择recipe之后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否可以直接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置AGING功能</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>准备条件：
-重新打开APP,initlizer执行结束
-1 执行recipe选择
-2 修改aging为使能
-3 修改aging次数至少大于等于2次
-4 auto AF使能
-5 点击SP，并观察执行结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>步骤5时观察执行结果：
-    1 执行autoAF
-    2 回到SP位置开始检查
-    3 AGING模式INSPECTION运行，直到正常结束</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoAF_22</t>
-  </si>
-  <si>
     <t>目前已经解决</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1601,163 +556,6 @@
   <si>
     <t>有的一个大缺陷分成了好几个小的，有的前10找的也不对</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>compare默认算法</t>
-  </si>
-  <si>
-    <t>Compare_Alg_1</t>
-  </si>
-  <si>
-    <t>开机初始化之后，在配置窗体中Default Comparison Algorithm下选择算法2并保存，多次点击Compare按钮，检查窗体中是否自动勾选了算法2</t>
-  </si>
-  <si>
-    <t>1.开机初始化
-2.配置Default Comparison Algorithm下的算法2
-3.第一次点击compare按钮，检查算法选择情况
-4.选择算法1，执行start或者关闭compare窗口
-5.再次点击compare按钮，检查算法选择情况
-6.检查配置窗口中的默认alg选择是否有变化
-7.重启程序，不进行任何配置，点击compare按钮，检查算法选择情况</t>
-  </si>
-  <si>
-    <t>1.第一次点击compare按钮后，算法应该默认选择alg2
-2.切换到算法1后，再次点击compare按钮后，算法应该选择alg1
-3.检查配置窗口，默认算法应该没有改变
-4.重启程序后，再次点击compare按钮后，算法应该默认选择alg2</t>
-  </si>
-  <si>
-    <t>Compare_Alg_2</t>
-  </si>
-  <si>
-    <t>开机初始化之后，在配置窗体中Default Comparison Algorithm下选择算法1并保存，重开程序，检查Compare的窗体中是否自动勾选了算法1</t>
-  </si>
-  <si>
-    <t>1.开机初始化
-2.配置Default Comparison Algorithm下的算法1
-3.第一次点击compare按钮，检查算法选择情况
-4.选择算法2，执行start或者关闭compare窗口
-5.再次点击compare按钮，检查算法选择情况
-6.检查配置窗口中的默认alg选择是否有变化
-7.重启程序，不进行任何配置，点击compare按钮，检查算法选择情况</t>
-  </si>
-  <si>
-    <t>1.第一次点击compare按钮后，算法应该默认选择alg1
-2.切换到算法1后，再次点击compare按钮后，算法应该选择alg2
-3.检查配置窗口，默认算法应该没有改变
-4.重启程序后，再次点击compare按钮后，算法应该默认选择alg1</t>
-  </si>
-  <si>
-    <t>Compare_Alg_3</t>
-  </si>
-  <si>
-    <t>开机初始化之后，点击Compare按钮，检查窗体中自动勾选的算法，改变配置中默认算法的选择，重新点击compare按钮观察情况，重启程序点击compare按钮观察情况</t>
-  </si>
-  <si>
-    <t>1.不重启程序的情况下，改变配置中的默认算法，compare窗口的算法选择不会变
-2.重启程序，再点击compare窗口，默认算法才会变</t>
-  </si>
-  <si>
-    <t>compare的out dir路径</t>
-  </si>
-  <si>
-    <t>Compare_path_1</t>
-  </si>
-  <si>
-    <t>点击Compare按钮，先点击Before按钮选择一个文件，然后点击After按钮选择不同文件夹下的文件，观察Out  Dir的路径</t>
-  </si>
-  <si>
-    <t>只有点击了After按钮后，Out Dir的路径才会添加，且路径只是文件夹路径不是文件路径</t>
-  </si>
-  <si>
-    <t>Compare_path_2</t>
-  </si>
-  <si>
-    <t>点击Compare按钮，先点击After按钮选择一个文件，然后点击Before按钮选择不同文件夹下的文件，观察Out  Dir的路径</t>
-  </si>
-  <si>
-    <t>Aging的map编号</t>
-  </si>
-  <si>
-    <t>Aging_Map_1</t>
-  </si>
-  <si>
-    <t>开机初始化后，清空map文件夹和DefectData文件夹，勾选Aging，次数1，开始扫描</t>
-  </si>
-  <si>
-    <t>map编号应从1开始计数，DefectData文件夹里的AgingData.csv中的编号也应该从1开始计数</t>
-  </si>
-  <si>
-    <t>Aging_Map_2</t>
-  </si>
-  <si>
-    <t>开机初始化后，清空map文件夹和DefectData文件夹，勾选Aging，次数2，开始扫描</t>
-  </si>
-  <si>
-    <t>Aging_Map_3</t>
-  </si>
-  <si>
-    <t>开机初始化后，清空map文件夹和DefectData文件夹，勾选AutoAF，然后勾选Aging，次数2，开始扫描</t>
-  </si>
-  <si>
-    <t>Aging_Map_4</t>
-  </si>
-  <si>
-    <t>在有扫描完成的情况下，不清空文件，勾选Aging，次数1，开始扫描</t>
-  </si>
-  <si>
-    <t>Aging_Map_5</t>
-  </si>
-  <si>
-    <t>在有扫描完成的情况下，不清空文件，勾选Aging，次数2，开始扫描</t>
-  </si>
-  <si>
-    <t>Aging_Map_6</t>
-  </si>
-  <si>
-    <t>在有扫描Stop的情况下，不清空文件，勾选Aging，次数1，开始扫描</t>
-  </si>
-  <si>
-    <t>Aging_Map_7</t>
-  </si>
-  <si>
-    <t>在有扫描Stop的情况下，不清空文件，勾选Aging，次数2，开始扫描</t>
-  </si>
-  <si>
-    <t>增加OnlyFS</t>
-  </si>
-  <si>
-    <t>OnlyFS_1</t>
-  </si>
-  <si>
-    <t>检查RecipeEdit中，OnlyFS的3个值是否可以正常保存</t>
-  </si>
-  <si>
-    <t>改变OnlyFS的3个值，保存，重启程序，检查OnlyFS的值是否有改变</t>
-  </si>
-  <si>
-    <t>应正常保存</t>
-  </si>
-  <si>
-    <t>OnlyFS_2</t>
-  </si>
-  <si>
-    <t>正常scan一次，打开review界面，勾选OnlyFS和取消勾选OnlyFS，检查其筛选结果是否正确</t>
-  </si>
-  <si>
-    <t>一起讨论和检查</t>
-  </si>
-  <si>
-    <t>scan之后haze，再之后scan不显示图像</t>
-  </si>
-  <si>
-    <t>scan_haze_1</t>
-  </si>
-  <si>
-    <t>初始化之后scan，然后haze，再scan</t>
-  </si>
-  <si>
-    <t>第二次scan的时候可以在中间圆盘处正常显示扫描的图像</t>
   </si>
   <si>
     <t>AutoReviewHaze是否可以在缺陷检查时，直接得到</t>
@@ -2442,7 +1240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2479,12 +1277,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
@@ -2499,18 +1291,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2525,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2542,20 +1328,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2838,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4A92-1225-4E61-8521-C69032BFE3DF}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2884,13 +1660,13 @@
     </row>
     <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -2899,27 +1675,27 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="H2" s="6">
         <v>44487</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>346</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="53.25">
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -2928,18 +1704,18 @@
         <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -2948,27 +1724,28 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2977,7 +1754,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -3006,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>310</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>21</v>
@@ -3054,16 +1831,16 @@
         <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="I2" s="6">
         <v>44468</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
@@ -3077,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
@@ -3089,7 +1866,7 @@
         <v>74</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3103,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -3119,7 +1896,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3149,7 +1926,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1">
@@ -3180,7 +1957,7 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34.5">
@@ -3194,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -3206,10 +1983,10 @@
         <v>74</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" hidden="1">
@@ -3233,10 +2010,10 @@
         <v>74</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3250,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -3262,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>325</v>
+        <v>162</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="3" t="s">
@@ -3300,7 +2077,7 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1">
@@ -3333,7 +2110,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1">
@@ -3366,7 +2143,7 @@
         <v>39</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1">
@@ -3399,7 +2176,7 @@
         <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1">
@@ -3432,7 +2209,7 @@
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1">
@@ -3498,7 +2275,7 @@
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1">
@@ -3531,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1">
@@ -3564,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3578,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>312</v>
+        <v>149</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>23</v>
@@ -3627,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>299</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3641,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
@@ -3671,7 +2448,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>30</v>
@@ -3683,7 +2460,7 @@
         <v>75</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
@@ -3694,10 +2471,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>79</v>
@@ -3712,7 +2489,7 @@
         <v>75</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3735,7 +2512,7 @@
         <v>75</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1">
@@ -3755,10 +2532,10 @@
         <v>75</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
@@ -3778,10 +2555,10 @@
         <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34.5" hidden="1">
@@ -3801,10 +2578,10 @@
         <v>75</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="67.5" hidden="1">
@@ -3812,13 +2589,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>29</v>
@@ -3830,10 +2607,10 @@
         <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>318</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34.5">
@@ -3841,13 +2618,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>31</v>
@@ -3856,10 +2633,10 @@
         <v>74</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3867,16 +2644,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
@@ -3885,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3893,16 +2670,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
@@ -3911,7 +2688,7 @@
         <v>74</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3919,16 +2696,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3937,7 +2714,7 @@
         <v>74</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3945,16 +2722,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -3963,7 +2740,7 @@
         <v>74</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="69.75">
@@ -3971,13 +2748,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
         <v>35</v>
@@ -3986,10 +2763,10 @@
         <v>74</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="315">
@@ -3997,16 +2774,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
@@ -4015,7 +2792,7 @@
         <v>74</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>76</v>
@@ -4026,16 +2803,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
@@ -4044,7 +2821,7 @@
         <v>74</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1">
@@ -4052,13 +2829,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
@@ -4075,16 +2852,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -4093,7 +2870,7 @@
         <v>74</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5">
@@ -4101,25 +2878,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="84" hidden="1">
@@ -4127,31 +2904,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="I40" s="6">
         <v>44477</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4159,25 +2936,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>291</v>
+        <v>128</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4185,28 +2962,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
         <v>74</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1">
@@ -4214,25 +2991,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
         <v>74</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="I43" s="6">
         <v>44477</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51">
@@ -4240,25 +3017,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
         <v>74</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>309</v>
+        <v>146</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="34.5">
@@ -4266,25 +3043,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
         <v>74</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>307</v>
+        <v>144</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4292,25 +3069,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
         <v>74</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34.5">
@@ -4318,25 +3095,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>321</v>
+        <v>135</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>308</v>
+        <v>145</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="84" hidden="1">
@@ -4344,22 +3121,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
         <v>74</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1">
@@ -4367,16 +3144,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
         <v>74</v>
@@ -4385,7 +3162,7 @@
         <v>74</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="34.5" hidden="1">
@@ -4393,16 +3170,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>334</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
         <v>35</v>
@@ -4411,7 +3188,7 @@
         <v>74</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4434,721 +3211,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BE7F8C-74A0-4FF5-9FC0-E335D6224AB4}">
-  <dimension ref="B1:F56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="68.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="65.5" customWidth="1"/>
-    <col min="6" max="6" width="63.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="51">
-      <c r="C4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="51">
-      <c r="C5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="51">
-      <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="51">
-      <c r="C7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="51">
-      <c r="C8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="C9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="51">
-      <c r="C10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="51">
-      <c r="C11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="51">
-      <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="51">
-      <c r="C14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="51">
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="51">
-      <c r="C17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="51">
-      <c r="C18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="117">
-      <c r="C19" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="117">
-      <c r="C20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="133.5">
-      <c r="C21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="133.5">
-      <c r="C22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="133.5">
-      <c r="C23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="84">
-      <c r="B24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="84">
-      <c r="C25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="84">
-      <c r="C26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="84">
-      <c r="C27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="67.5">
-      <c r="C28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="67.5">
-      <c r="C29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="54">
-      <c r="C30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="54">
-      <c r="C31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="88.5">
-      <c r="C32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="123.75">
-      <c r="C33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="51">
-      <c r="C34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="34.5">
-      <c r="C35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="34.5">
-      <c r="C36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="34.5">
-      <c r="C37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="34.5">
-      <c r="C38" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="34.5">
-      <c r="C39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="34.5">
-      <c r="C40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="123.75">
-      <c r="C41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="117">
-      <c r="B42" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="117">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="51">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="34.5">
-      <c r="B45" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="34.5">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="34.5">
-      <c r="B47" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="34.5">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="34.5">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="34.5">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F292ED2-18DF-4743-8333-FCA2DF59C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48FA41-188E-450C-AD64-FEF6797B6014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="192">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>hoy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">a-3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>merge的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结果一万多，只差几十个</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -292,10 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>merge的结果一万多，只差几十个</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指示灯一直是绿色在闪，</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,10 +329,6 @@
   </si>
   <si>
     <t>当前的设置如此，后续讨论后再修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>后续有问题，再修改</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1235,12 +1191,107 @@
     <t>review ccd时，手动的上下左右移动，X2轴的offset没有考虑进去，导致到了边缘1400后，再无法移动，X2目标到不了</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>2021/10/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现只有一个exe，不需要安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2021/10/19：界面增加Log</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recipe中配置了merge，但没有生效</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置了merge的distance为180,但实际生成的两个文件差异不大
+1 aging只保留了最后一次的数据（defect map）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021/10/20：
+1 通过实际验证，实际使用了distance为10进行merge，代码中可能有BUG
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现条件：第一次打开时没有选择merge，或者merge使用的distance是10，然后修改为180，保存但没有重新打开，而直接使用
+问题是RecipeParameter::Load只调用一次
+但是MergeSimilarSquare是在Load中设置，
+中间过程如果修改，但是没有重新打开过recipe是无法更新这个参数的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wave haze wave在最大化时wave haze的位置异常</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用英文版win10窗体过大导致全屏无法显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,6 +1340,13 @@
       <name val="Microsoft YaHei"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1628,118 +1686,118 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H2" s="6">
         <v>44487</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="53.25">
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
         <v>182</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1751,11 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1774,73 +1831,73 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="35.25" hidden="1">
+    </row>
+    <row r="2" spans="1:12" ht="35.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I2" s="6">
         <v>44468</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
@@ -1848,55 +1905,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="168.75">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1904,60 +1961,60 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34.5">
@@ -1965,55 +2022,55 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="69.75" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="69.75">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2021,327 +2078,327 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="3" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="6">
         <v>44469</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6">
         <v>44469</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6">
         <v>44469</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6">
         <v>44469</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="6">
         <v>44469</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="7">
         <v>44468</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="6">
         <v>44469</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="6">
         <v>44469</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I18" s="7">
         <v>44468</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2349,62 +2406,62 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7">
         <v>44468</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2412,58 +2469,58 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="34.5" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="34.5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2471,25 +2528,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
         <v>72</v>
       </c>
-      <c r="G23" t="s">
-        <v>75</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2497,120 +2554,120 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
         <v>72</v>
       </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>72</v>
       </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
         <v>72</v>
       </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="34.5" hidden="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34.5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="G27" t="s">
-        <v>75</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="67.5" hidden="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="67.5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34.5">
@@ -2618,25 +2675,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2644,25 +2701,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2670,25 +2727,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2696,25 +2753,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2722,25 +2779,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="69.75">
@@ -2748,25 +2805,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="315">
@@ -2774,28 +2831,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2803,48 +2860,48 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2852,25 +2909,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5">
@@ -2878,57 +2935,57 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="84" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="84">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="F40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="I40" s="6">
         <v>44477</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2936,25 +2993,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2962,54 +3019,54 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I43" s="6">
         <v>44477</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51">
@@ -3017,25 +3074,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="34.5">
@@ -3043,25 +3100,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3069,25 +3126,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34.5">
@@ -3095,118 +3152,123 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="84" hidden="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="84">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="37.5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C49" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="34.5" hidden="1">
+    </row>
+    <row r="50" spans="1:10" ht="34.5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>176</v>
+    </row>
+    <row r="51" spans="1:10" ht="34.5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L50" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="BI12"/>
-        <filter val="BI8"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="doing"/>
-        <filter val="hold"/>
-        <filter val="waiting"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48FA41-188E-450C-AD64-FEF6797B6014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8278D5-A347-4CEC-BAF7-3A370D6815CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="198">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1284,6 +1284,52 @@
   </si>
   <si>
     <t>使用英文版win10窗体过大导致全屏无法显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>由于属性使用了FONT scale导致</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>ne</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>划直线检测</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1809,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3266,6 +3312,47 @@
       <c r="B52" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="C52" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8278D5-A347-4CEC-BAF7-3A370D6815CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FE7E2-D1E8-4FE2-BD71-BBBEDF91B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2021_小机软件" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="202">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -981,11 +981,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">2021/10/11：完成了接口集成
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通过网上的对焦算法仿真，取右上脚的区域，
 不对焦大约是3分；对上焦之后是5分，可以尝试开发
 1、Tenengrad梯度方法
@@ -1248,8 +1243,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2021/10/20：
+    <t>wave haze wave在最大化时wave haze的位置异常</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用英文版win10窗体过大导致全屏无法显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>由于属性使用了FONT scale导致</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>ne</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>划直线检测</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B面出现FS假缺陷，高达3000，并且与位置无关，任何位置出现</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
+2021/10/20：
 1 通过实际验证，实际使用了distance为10进行merge，代码中可能有BUG
 2 </t>
     </r>
@@ -1279,24 +1333,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>wave haze wave在最大化时wave haze的位置异常</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用英文版win10窗体过大导致全屏无法显示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>由于属性使用了FONT scale导致</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BUG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>win</t>
+    <t>已经修改，待发布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>合入</t>
     </r>
     <r>
       <rPr>
@@ -1304,14 +1346,22 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>do</t>
+        <charset val="134"/>
+      </rPr>
+      <t>单独分支，待验证后，合入主线</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2021/11/2：第一次对焦测试版本已经完成，待分析后，进一步修改
+2021/10/11：完成了接口集成
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2021/11/2：目前看</t>
     </r>
     <r>
       <rPr>
@@ -1319,17 +1369,11 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-      </rPr>
-      <t>ne</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>划直线检测</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>doing</t>
+        <charset val="134"/>
+      </rPr>
+      <t>用户用错了recipe，
+Z轴的长度，该值在genban.ini中保存</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1716,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4A92-1225-4E61-8521-C69032BFE3DF}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1770,7 +1814,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -1779,16 +1823,16 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" s="6">
         <v>44487</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" t="s">
         <v>180</v>
-      </c>
-      <c r="J2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="53.25">
@@ -1799,7 +1843,7 @@
         <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -1808,18 +1852,18 @@
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -1828,37 +1872,43 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1913,7 +1963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.25">
+    <row r="2" spans="1:12" ht="35.25" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1969,21 +2019,21 @@
         <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="168.75">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="201.75">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -1995,7 +2045,7 @@
         <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -2029,10 +2079,10 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2089,10 +2139,10 @@
         <v>150</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="69.75">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="69.75" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2119,7 +2169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2150,7 +2200,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2183,7 +2233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2216,7 +2266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2249,7 +2299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2282,7 +2332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2315,7 +2365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2348,7 +2398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2381,7 +2431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2414,7 +2464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2477,7 +2527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2540,7 +2590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34.5">
+    <row r="22" spans="1:11" ht="34.5" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2591,8 +2641,11 @@
       <c r="G23" t="s">
         <v>72</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="J23" s="3" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2614,11 +2667,14 @@
       <c r="G24" t="s">
         <v>72</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="J24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2641,7 +2697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2664,7 +2720,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34.5">
+    <row r="27" spans="1:11" ht="34.5" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2687,7 +2743,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="67.5">
+    <row r="28" spans="1:11" ht="67.5" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2764,8 +2820,11 @@
       <c r="G30" t="s">
         <v>72</v>
       </c>
+      <c r="H30" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="J30" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2791,7 +2850,7 @@
         <v>71</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2817,7 +2876,7 @@
         <v>71</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2843,7 +2902,7 @@
         <v>71</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="69.75">
@@ -2869,7 +2928,7 @@
         <v>158</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="315">
@@ -2880,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>155</v>
@@ -2895,7 +2954,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>73</v>
@@ -2927,7 +2986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2973,7 +3032,7 @@
         <v>71</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5">
@@ -2999,10 +3058,10 @@
         <v>71</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="84">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="84" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3057,7 +3116,7 @@
         <v>138</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3086,10 +3145,10 @@
         <v>139</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3138,7 +3197,7 @@
         <v>143</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="34.5">
@@ -3164,7 +3223,7 @@
         <v>141</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3190,7 +3249,7 @@
         <v>137</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34.5">
@@ -3216,7 +3275,7 @@
         <v>142</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="84">
@@ -3224,13 +3283,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>109</v>
@@ -3238,8 +3297,11 @@
       <c r="G48" t="s">
         <v>71</v>
       </c>
+      <c r="H48" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="J48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="37.5">
@@ -3247,28 +3309,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="34.5">
@@ -3276,16 +3338,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
@@ -3294,7 +3356,7 @@
         <v>71</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34.5">
@@ -3302,24 +3364,24 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
@@ -3328,7 +3390,7 @@
         <v>72</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3336,13 +3398,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -3351,11 +3413,19 @@
         <v>71</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="doing"/>
+        <filter val="hold"/>
+        <filter val="waiting"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FE7E2-D1E8-4FE2-BD71-BBBEDF91B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269234AA-C5BB-486D-A5AE-5650B3F94D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="204">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1374,6 +1374,26 @@
       <t>用户用错了recipe，
 Z轴的长度，该值在genban.ini中保存</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>unload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时 06寄存器laserpower设置为0</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1905,10 +1925,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3366,6 +3386,9 @@
       <c r="B51" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="J51" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="52" spans="1:10" hidden="1">
       <c r="A52">
@@ -3414,6 +3437,29 @@
       </c>
       <c r="J53" s="3" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269234AA-C5BB-486D-A5AE-5650B3F94D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83049210-ABB4-4820-95DB-41D2353F7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="208">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1394,6 +1394,46 @@
   </si>
   <si>
     <t>CI8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在保存文档中增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测时长</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>找出缺陷位于表面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还是反面</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oliver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BI8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1925,10 +1965,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3462,6 +3502,46 @@
         <v>73</v>
       </c>
     </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L53" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="9">

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83049210-ABB4-4820-95DB-41D2353F7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BE527-4A26-4243-BCEA-B68A5C2C2206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2021_小机软件" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1436,12 +1436,113 @@
     <t>BI8</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>2021/11/8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合入主线</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版本更新脚本升级成增加库名和分支名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改版界面后的增加修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台湾机器客户要求</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>界面尽量与KLA相同</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo unload 图标变大， footon clear alarm图标小
+cbs 要修改，需要增加一个弹窗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BI12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新功能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BI8-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>输出全部laser review图像并保存预开发</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laser review的图像，通过灰度调节，获取slice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>灰度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调节的值，换算成slice的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>值标在旁边</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,6 +1598,13 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1822,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4A92-1225-4E61-8521-C69032BFE3DF}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1965,10 +2073,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3479,7 +3587,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3498,8 +3606,11 @@
       <c r="G54" t="s">
         <v>71</v>
       </c>
+      <c r="H54" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="J54" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3521,6 +3632,9 @@
       <c r="G55" t="s">
         <v>71</v>
       </c>
+      <c r="J55" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
@@ -3541,9 +3655,124 @@
       <c r="G56" t="s">
         <v>71</v>
       </c>
+      <c r="J56" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="34.5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L61" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters blank="1">
         <filter val="doing"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BE527-4A26-4243-BCEA-B68A5C2C2206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331ED69-A33A-4076-B2FA-07D33F59DD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="223">
   <si>
     <t>hoya-2 autoreview在scan结束就执行，在autoreview结束后，再弹出scan结束的窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1534,6 +1534,43 @@
         <charset val="136"/>
       </rPr>
       <t>值标在旁边</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>台灣晶技全球規模最大的石英震盪器廠商，
+他們想導入表面檢測設備，
+上週已經做過測試，我們的設備可以量測沒問題。
+客戶希望我們能進一步判別缺陷是在表面或非表面(裡層或背面)，
+我看我們測試的結果應該是有機會能判斷出來。
+比方說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> （这个例子的影响因素，产品透明度，厚度，激光强度，slice应该设置成多少，影响因素最好都体现在recipe当中）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BS&gt;2000 有9成會是表面大型particles，
+FS&gt;2000，但是BS小於500，9成是裡層或背面，
+FS&gt;BS，可能是非表面，
+我們是否可以把這類邏輯加入軟體判定中?
+不需要100%準確，但是可以讓客戶有個參考數據，
+應該大多客戶會提出這樣的要求!</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2075,8 +2112,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3534,8 +3571,20 @@
       <c r="B51" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
       <c r="J51" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:10" hidden="1">
@@ -3636,12 +3685,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="262.5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>205</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>153</v>
@@ -3705,7 +3757,7 @@
         <v>72</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:10">

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331ED69-A33A-4076-B2FA-07D33F59DD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074339A4-66E9-4511-BCA3-B86AF4B8440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1685,6 +1685,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2112,8 +2113,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2227,7 +2228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="201.75">
+    <row r="4" spans="1:12" ht="201.75" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2253,8 +2254,8 @@
         <v>197</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>73</v>
+      <c r="J4" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2765,7 +2766,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2791,8 +2792,8 @@
         <v>61</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>60</v>
+      <c r="J21" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="34.5" hidden="1">
@@ -2824,7 +2825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2849,11 +2850,11 @@
       <c r="H23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2875,8 +2876,8 @@
       <c r="H24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>116</v>
+      <c r="J24" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1">
@@ -3003,7 +3004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3028,8 +3029,8 @@
       <c r="H30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>161</v>
+      <c r="J30" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3078,10 +3079,10 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3104,10 +3105,10 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="69.75">
@@ -3234,10 +3235,10 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5">
@@ -3298,7 +3299,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3320,8 +3321,8 @@
       <c r="H41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>161</v>
+      <c r="J41" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3379,7 +3380,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="51">
+    <row r="44" spans="1:11" ht="51" hidden="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3401,11 +3402,11 @@
       <c r="H44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="34.5">
+      <c r="J44" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="34.5" hidden="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3427,8 +3428,8 @@
       <c r="H45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>161</v>
+      <c r="J45" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3457,7 +3458,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="34.5">
+    <row r="47" spans="1:11" ht="34.5" hidden="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3479,8 +3480,8 @@
       <c r="H47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>161</v>
+      <c r="J47" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="84">
@@ -3564,7 +3565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="34.5">
+    <row r="51" spans="1:10" ht="34.5" hidden="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>73</v>
@@ -3734,7 +3735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="34.5">
+    <row r="58" spans="1:10" ht="34.5" hidden="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>220</v>
@@ -3826,7 +3827,7 @@
   </sheetData>
   <autoFilter ref="A1:L61" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="doing"/>
         <filter val="hold"/>
         <filter val="waiting"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074339A4-66E9-4511-BCA3-B86AF4B8440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC06F6-FFFA-43E8-BEE5-28E72095F06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
@@ -1053,28 +1053,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>工程在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>driver_product下mini_controller为基础上</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 工程更新，tools下的pcie_controller
-2 FPGA发现有BUG，代码更新并写出BUG说明，再测试</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1572,6 +1551,15 @@
 不需要100%準確，但是可以讓客戶有個參考數據，
 應該大多客戶會提出這樣的要求!</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/11/12：使用tools中的pcie_controller，只有一个exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 工程更新，tools下的pcie_controller
+2 FPGA分析后没有问题，需要我们再测试一下该功能</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2020,7 +2008,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -2029,16 +2017,16 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6">
         <v>44487</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="53.25">
@@ -2049,7 +2037,7 @@
         <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -2058,18 +2046,18 @@
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -2078,27 +2066,27 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2113,8 +2101,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2222,7 +2210,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>161</v>
@@ -2233,13 +2221,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -2251,7 +2239,7 @@
         <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="10" t="s">
@@ -2848,7 +2836,7 @@
         <v>72</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>38</v>
@@ -2874,7 +2862,7 @@
         <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>38</v>
@@ -3027,7 +3015,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>38</v>
@@ -3053,10 +3041,10 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3160,7 +3148,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>73</v>
@@ -3492,7 +3480,7 @@
         <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>164</v>
@@ -3504,7 +3492,7 @@
         <v>71</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>165</v>
@@ -3517,15 +3505,15 @@
       <c r="B49" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="F49" t="s">
         <v>71</v>
       </c>
@@ -3533,10 +3521,10 @@
         <v>71</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="34.5">
@@ -3547,13 +3535,13 @@
         <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
@@ -3562,7 +3550,7 @@
         <v>71</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34.5" hidden="1">
@@ -3570,13 +3558,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
@@ -3593,16 +3581,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
@@ -3611,7 +3599,7 @@
         <v>72</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3619,13 +3607,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -3634,7 +3622,7 @@
         <v>71</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1">
@@ -3642,13 +3630,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
@@ -3657,7 +3645,7 @@
         <v>71</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>38</v>
@@ -3668,13 +3656,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
@@ -3691,19 +3679,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G56" t="s">
         <v>71</v>
@@ -3717,13 +3705,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F57" t="s">
         <v>71</v>
@@ -3740,16 +3728,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
@@ -3766,16 +3754,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -3792,7 +3780,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>73</v>
@@ -3803,10 +3791,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>153</v>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -11,14 +11,14 @@
     <sheet name="2021_小机软件" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$68</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
   <si>
     <t>问题编号</t>
   </si>
@@ -250,6 +250,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
 2021/10/20：
 1 通过实际验证，实际使用了distance为10进行merge，代码中可能有BUG
@@ -769,6 +774,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>灰度调节的值，换算成slice的值，把</t>
     </r>
     <r>
@@ -793,8 +803,7 @@
     <t>增加Log在程序中可以直接显示的窗体</t>
   </si>
   <si>
-    <t>用RichTextbox来显示，实时滚动到最后一行。
-后期加入Error号后，可以做Log的分类和筛选功能。</t>
+    <t>用RichTextbox来显示，实时滚动到最后一行。</t>
   </si>
   <si>
     <t>增加Error号</t>
@@ -819,6 +828,12 @@
   </si>
   <si>
     <t>优化BS和FS仅靠slice取光高的算法</t>
+  </si>
+  <si>
+    <t>加强Log窗体的筛选显示功能</t>
+  </si>
+  <si>
+    <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
   </si>
 </sst>
 </file>
@@ -826,24 +841,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -862,38 +872,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,25 +912,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,25 +940,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,16 +963,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,8 +994,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,6 +1020,12 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1024,6 +1033,54 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1039,7 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,19 +1114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,67 +1174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,37 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,17 +1230,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,39 +1250,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,8 +1272,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,181 +1303,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1826,52 +1825,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="55.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
     <col min="7" max="7" width="62.25" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="33" spans="2:10">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -1883,24 +1882,24 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="10">
         <v>44487</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="2:7">
-      <c r="B3" s="15" t="s">
+    <row r="3" ht="51.75" spans="2:7">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -1909,18 +1908,18 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="15" t="s">
+    <row r="4" ht="18.75" spans="2:7">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -1934,22 +1933,22 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="33" spans="2:2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1962,11 +1961,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1986,73 +1985,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:11">
+    <row r="2" ht="33" hidden="1" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="5">
         <v>44468</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2060,55 +2059,54 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="198" spans="1:10">
+    <row r="4" ht="198" hidden="1" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2116,60 +2114,58 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" hidden="1" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2177,713 +2173,701 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="66" spans="1:10">
+    <row r="8" ht="66" hidden="1" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" hidden="1" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" hidden="1" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>44469</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" hidden="1" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>44469</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" hidden="1" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="5">
         <v>44469</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" hidden="1" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="5">
         <v>44469</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" hidden="1" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="5">
         <v>44469</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" hidden="1" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="5">
         <v>44468</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" hidden="1" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="5">
         <v>44469</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" hidden="1" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="5">
         <v>44469</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" hidden="1" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="5">
         <v>44468</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" hidden="1" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="5">
         <v>44468</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:10">
+    <row r="22" ht="33" hidden="1" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:10">
+    <row r="27" ht="33" hidden="1" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="66" spans="1:10">
+    <row r="28" ht="66" hidden="1" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:10">
+    <row r="29" ht="33" hidden="1" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" hidden="1" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2891,25 +2875,25 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2917,25 +2901,25 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2943,25 +2927,25 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2969,25 +2953,25 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="G34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2995,28 +2979,28 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="G35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3024,48 +3008,48 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="G36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" hidden="1" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3073,25 +3057,25 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3099,83 +3083,83 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="G39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" ht="82.5" spans="1:11">
+    <row r="40" ht="82.5" hidden="1" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="G40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="5">
         <v>44477</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" hidden="1" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="G41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3183,106 +3167,106 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="5" t="s">
+      <c r="G42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" hidden="1" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="G43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="5">
         <v>44477</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="49.5" spans="1:10">
+    <row r="44" ht="49.5" hidden="1" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="G44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="33" spans="1:10">
+    <row r="45" ht="33" hidden="1" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="G45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3290,51 +3274,51 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="5" t="s">
+      <c r="G46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" ht="33" spans="1:10">
+    <row r="47" ht="33" hidden="1" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="G47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3342,25 +3326,25 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="G48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3368,28 +3352,28 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="5" t="s">
+      <c r="F49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3397,74 +3381,74 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="6" t="s">
+      <c r="G50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" ht="33" spans="1:10">
+    <row r="51" ht="33" hidden="1" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="6" t="s">
+      <c r="G51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" hidden="1" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3472,97 +3456,97 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="6" t="s">
+      <c r="G53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" hidden="1" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="5" t="s">
+      <c r="G54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" hidden="1" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>39</v>
+      <c r="J55" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="231" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="6" t="s">
+      <c r="G56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3570,48 +3554,48 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="6" t="s">
+      <c r="F57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" ht="33" spans="1:10">
+    <row r="58" ht="33" hidden="1" spans="1:10">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3619,25 +3603,25 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="6" t="s">
+      <c r="G59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3645,10 +3629,10 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3656,25 +3640,25 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="6" t="s">
+      <c r="G61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3688,40 +3672,40 @@
       <c r="C62" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="6" t="s">
+      <c r="G62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" ht="33" spans="1:10">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>48</v>
+      <c r="J63" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3734,16 +3718,16 @@
       <c r="C64" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="6" t="s">
+      <c r="G64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3757,16 +3741,16 @@
       <c r="C65" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="6" t="s">
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3780,16 +3764,16 @@
       <c r="C66" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3803,22 +3787,51 @@
       <c r="C67" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" ht="14.25"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L62"/>
+  <autoFilter ref="A1:L68">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="equal" val="doing"/>
+        <customFilter operator="equal" val="waiting"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B344A47-C7C2-49E0-BCAB-87DC29C86864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18465" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021_大机软件" sheetId="3" r:id="rId1"/>
-    <sheet name="2021_小机软件" sheetId="1" r:id="rId2"/>
+    <sheet name="ITS" sheetId="4" r:id="rId1"/>
+    <sheet name="2021_大机软件" sheetId="3" r:id="rId2"/>
+    <sheet name="2021_小机软件" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021_小机软件'!$A$1:$L$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021_小机软件'!$A$1:$L$68</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="208">
   <si>
     <t>问题编号</t>
   </si>
@@ -80,7 +87,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>通过修改recipe实现，目前暂不修改代码</t>
     </r>
@@ -103,7 +110,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -117,7 +124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">可能是lodas.ini中的S_RATIO设置过大导致，
 如果是100的话，S大，加速度瞬间可能过大，
@@ -137,7 +144,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0的话，加速度是不变的</t>
     </r>
@@ -157,7 +164,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">通过S_RATIO的修改，以及加速度的保护值加大，基本可以解决
 </t>
@@ -184,7 +191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:现场解决时问题未复现，暂时先挂起</t>
     </r>
@@ -253,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
 2021/10/20：
@@ -264,7 +271,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>必</t>
     </r>
@@ -272,7 +279,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>现条件：第一次打开时没有选择merge，或者merge使用的distance是10，然后修改为180，保存但没有重新打开，而直接使用
 问题是RecipeParameter::Load只调用一次
@@ -777,7 +784,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>灰度调节的值，换算成slice的值，把</t>
     </r>
@@ -785,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
       </rPr>
       <t>值标在旁边</t>
     </r>
@@ -834,191 +841,44 @@
   </si>
   <si>
     <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
+  </si>
+  <si>
+    <t># Introduction 
+ITS: issue tracking system of LAZIN
+Purpose: Record all software related issues</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1026,202 +886,32 @@
       <name val="Yu Gothic"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1229,255 +919,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1498,62 +946,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1811,19 +1221,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDDFB22-53D5-49EB-88E7-FAD5366AE655}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="55.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1831,7 +1302,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="2:10">
+    <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +1363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="51.75" spans="2:7">
+    <row r="3" spans="1:10" ht="53.25">
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="2:7">
+    <row r="4" spans="1:10">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1932,39 +1403,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:2">
+    <row r="5" spans="1:10">
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="2:2">
+    <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="2:2">
+    <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:2">
+    <row r="8" spans="1:10">
       <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="33" hidden="1" spans="1:11">
+    <row r="2" spans="1:12" ht="33" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2055,7 +1526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:10">
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2081,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="198" hidden="1" spans="1:10">
+    <row r="4" spans="1:12" ht="198" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2110,7 +1581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2139,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:11">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2169,7 +1640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:10">
+    <row r="7" spans="1:12" ht="33">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2198,7 +1669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="66" hidden="1" spans="1:10">
+    <row r="8" spans="1:12" ht="66" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2225,7 +1696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2256,7 +1727,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" hidden="1" spans="1:11">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2288,7 +1759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:11">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2320,7 +1791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:11">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2352,7 +1823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:11">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2384,7 +1855,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:11">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2416,7 +1887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:11">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2448,7 +1919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:11">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2480,7 +1951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2512,7 +1983,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2544,7 +2015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:10">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2573,7 +2044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2605,7 +2076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:10">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2634,7 +2105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="33" hidden="1" spans="1:10">
+    <row r="22" spans="1:11" ht="33" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2663,7 +2134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:10">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2692,7 +2163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:10">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2718,7 +2189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:10">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2741,7 +2212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:10">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2764,7 +2235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="33" hidden="1" spans="1:10">
+    <row r="27" spans="1:11" ht="33" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2787,7 +2258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="66" hidden="1" spans="1:10">
+    <row r="28" spans="1:11" ht="66" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2816,7 +2287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="33" hidden="1" spans="1:10">
+    <row r="29" spans="1:11" ht="33" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2842,7 +2313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:10">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2871,7 +2342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2897,7 +2368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2923,7 +2394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2949,7 +2420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" ht="66" spans="1:10">
+    <row r="34" spans="1:11" ht="66">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2975,7 +2446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" ht="313.5" spans="1:10">
+    <row r="35" spans="1:11" ht="313.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3004,7 +2475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3030,7 +2501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3053,7 +2524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3079,7 +2550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:10">
+    <row r="39" spans="1:11" ht="33">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3105,7 +2576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" ht="82.5" hidden="1" spans="1:11">
+    <row r="40" spans="1:11" ht="82.5" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3137,7 +2608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:10">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3163,7 +2634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3192,7 +2663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:10">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3218,7 +2689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="49.5" hidden="1" spans="1:10">
+    <row r="44" spans="1:11" ht="49.5" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3244,7 +2715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="33" hidden="1" spans="1:10">
+    <row r="45" spans="1:11" ht="33" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3270,7 +2741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3296,7 +2767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" ht="33" hidden="1" spans="1:10">
+    <row r="47" spans="1:11" ht="33" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3322,7 +2793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" ht="82.5" spans="1:10">
+    <row r="48" spans="1:11" ht="82.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3348,7 +2819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" ht="33" spans="1:10">
+    <row r="49" spans="1:10" ht="33">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3377,7 +2848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" ht="33" spans="1:10">
+    <row r="50" spans="1:10" ht="33">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3403,7 +2874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" ht="33" hidden="1" spans="1:10">
+    <row r="51" spans="1:10" ht="33" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3426,7 +2897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3475,7 +2946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3501,7 +2972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3524,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" ht="231" spans="1:10">
+    <row r="56" spans="1:10" ht="231">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3573,7 +3044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" ht="33" hidden="1" spans="1:10">
+    <row r="58" spans="1:10" ht="33" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3824,16 +3295,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L68">
+  <autoFilter ref="A1:L68" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="equal" val="doing"/>
-        <customFilter operator="equal" val="waiting"/>
-      </customFilters>
+      <filters>
+        <filter val="doing"/>
+        <filter val="waiting"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B344A47-C7C2-49E0-BCAB-87DC29C86864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -18,14 +12,19 @@
     <sheet name="2021_小机软件" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021_小机软件'!$A$1:$L$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021_小机软件'!$A$1:$L$69</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+  <si>
+    <t># Introduction 
+ITS: issue tracking system of LAZIN
+Purpose: Record all software related issues</t>
+  </si>
   <si>
     <t>问题编号</t>
   </si>
@@ -87,7 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>通过修改recipe实现，目前暂不修改代码</t>
     </r>
@@ -110,7 +109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>e</t>
     </r>
@@ -124,7 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">可能是lodas.ini中的S_RATIO设置过大导致，
 如果是100的话，S大，加速度瞬间可能过大，
@@ -144,7 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0的话，加速度是不变的</t>
     </r>
@@ -164,7 +163,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">通过S_RATIO的修改，以及加速度的保护值加大，基本可以解决
 </t>
@@ -191,7 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:现场解决时问题未复现，暂时先挂起</t>
     </r>
@@ -260,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
 2021/10/20：
@@ -271,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>必</t>
     </r>
@@ -279,7 +278,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>现条件：第一次打开时没有选择merge，或者merge使用的distance是10，然后修改为180，保存但没有重新打开，而直接使用
 问题是RecipeParameter::Load只调用一次
@@ -784,7 +783,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>灰度调节的值，换算成slice的值，把</t>
     </r>
@@ -792,7 +791,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>值标在旁边</t>
     </r>
@@ -843,42 +842,190 @@
     <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
   </si>
   <si>
-    <t># Introduction 
-ITS: issue tracking system of LAZIN
-Purpose: Record all software related issues</t>
-    <phoneticPr fontId="5"/>
+    <t>only BS增加</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -886,32 +1033,202 @@
       <name val="Yu Gothic"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -919,13 +1236,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -934,36 +1493,79 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1221,222 +1823,223 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDDFB22-53D5-49EB-88E7-FAD5366AE655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K3"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="55.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="55.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
     <col min="7" max="7" width="62.25" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" ht="16.5" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="34.5">
-      <c r="B2" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="2" ht="33" spans="2:10">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44487</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="51.75" spans="2:7">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10">
-        <v>44487</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="53.25">
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="2:7">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34.5">
-      <c r="B6" s="9" t="s">
+    <row r="5" ht="16.5" spans="2:2">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34.5">
-      <c r="B7" s="9" t="s">
+    <row r="6" ht="33" spans="2:2">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="9" t="s">
+    <row r="7" ht="33" spans="2:2">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="8" ht="16.5" spans="2:2">
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1457,1470 +2060,1470 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="33" hidden="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="33" hidden="1" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5">
         <v>44468</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="33" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="198" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="198" hidden="1" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="66" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="66" hidden="1" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" hidden="1" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="5">
         <v>44469</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="5">
         <v>44469</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="5">
         <v>44469</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="5">
         <v>44469</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="5">
         <v>44469</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="5">
         <v>44468</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5">
         <v>44469</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="5">
         <v>44469</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="5">
         <v>44468</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="5">
         <v>44468</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="33" hidden="1">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="33" hidden="1" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
+        <v>108</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+      <c r="J24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="33" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="33" hidden="1" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="66" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="66" hidden="1" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="33" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="33" hidden="1" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="66" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="313.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" ht="313.5" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" ht="33" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="82.5" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" ht="82.5" hidden="1" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I40" s="5">
         <v>44477</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>149</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I43" s="5">
         <v>44477</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="49.5" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" ht="49.5" hidden="1" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="33" hidden="1">
+        <v>156</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" ht="33" hidden="1" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>158</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="33" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" ht="33" hidden="1" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="82.5">
+        <v>162</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" ht="82.5" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" ht="33" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" ht="33" spans="1:10">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="33" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" ht="33" hidden="1" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2928,97 +3531,97 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="231">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" ht="231" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3026,48 +3629,48 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="33" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" ht="33" hidden="1" spans="1:10">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3075,25 +3678,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3101,10 +3704,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3112,25 +3715,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3138,22 +3741,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3161,22 +3764,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3184,22 +3787,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3207,22 +3810,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3230,22 +3833,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3253,22 +3856,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3276,35 +3879,59 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>48</v>
+      <c r="E69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="J69" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L68" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:L69">
     <filterColumn colId="9">
-      <filters>
-        <filter val="doing"/>
-        <filter val="waiting"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="doing"/>
+        <customFilter operator="equal" val="waiting"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD069C5-CE3C-446B-9855-D3BA0627D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18465" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="210">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -86,7 +92,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>通过修改recipe实现，目前暂不修改代码</t>
     </r>
@@ -109,7 +115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -123,7 +129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">可能是lodas.ini中的S_RATIO设置过大导致，
 如果是100的话，S大，加速度瞬间可能过大，
@@ -143,7 +149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0的话，加速度是不变的</t>
     </r>
@@ -163,7 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">通过S_RATIO的修改，以及加速度的保护值加大，基本可以解决
 </t>
@@ -190,7 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:现场解决时问题未复现，暂时先挂起</t>
     </r>
@@ -259,7 +265,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
 2021/10/20：
@@ -270,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>必</t>
     </r>
@@ -278,7 +284,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>现条件：第一次打开时没有选择merge，或者merge使用的distance是10，然后修改为180，保存但没有重新打开，而直接使用
 问题是RecipeParameter::Load只调用一次
@@ -783,7 +789,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>灰度调节的值，换算成slice的值，把</t>
     </r>
@@ -791,7 +797,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>值标在旁边</t>
     </r>
@@ -843,188 +849,43 @@
   </si>
   <si>
     <t>only BS增加</t>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Yu Gothic"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1033,202 +894,23 @@
       <name val="Yu Gothic"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1236,255 +918,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1511,61 +951,17 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1823,19 +1219,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
@@ -1882,22 +1278,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="55.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1905,7 +1300,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="2:10">
+    <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1966,7 +1361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="51.75" spans="2:7">
+    <row r="3" spans="1:10" ht="53.25">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +1381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="2:7">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -2006,40 +1401,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:2">
+    <row r="5" spans="1:10">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="2:2">
+    <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="2:2">
+    <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:2">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2096,7 +1491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="33" hidden="1" spans="1:11">
+    <row r="2" spans="1:12" ht="33" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2129,7 +1524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:10">
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2155,7 +1550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="198" hidden="1" spans="1:10">
+    <row r="4" spans="1:12" ht="198" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2184,7 +1579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2213,7 +1608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:11">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2243,7 +1638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:10">
+    <row r="7" spans="1:12" ht="33">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2272,7 +1667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" ht="66" hidden="1" spans="1:10">
+    <row r="8" spans="1:12" ht="66" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2299,7 +1694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2330,7 +1725,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" hidden="1" spans="1:11">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2362,7 +1757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:11">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2394,7 +1789,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:11">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2426,7 +1821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:11">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2458,7 +1853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:11">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2490,7 +1885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:11">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2522,7 +1917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:11">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2554,7 +1949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2586,7 +1981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2618,7 +2013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:10">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2647,7 +2042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2679,7 +2074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:10">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2708,7 +2103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="33" hidden="1" spans="1:10">
+    <row r="22" spans="1:11" ht="33" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2737,7 +2132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:10">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2766,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:10">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2792,7 +2187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:10">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2815,7 +2210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:10">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2838,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="33" hidden="1" spans="1:10">
+    <row r="27" spans="1:11" ht="33" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2861,7 +2256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" ht="66" hidden="1" spans="1:10">
+    <row r="28" spans="1:11" ht="66" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2890,7 +2285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" ht="33" hidden="1" spans="1:10">
+    <row r="29" spans="1:11" ht="33" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2916,7 +2311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:10">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2945,7 +2340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2971,7 +2366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2997,7 +2392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3023,7 +2418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" ht="66" spans="1:10">
+    <row r="34" spans="1:11" ht="66">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3049,7 +2444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" ht="313.5" spans="1:10">
+    <row r="35" spans="1:11" ht="313.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3078,7 +2473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3104,7 +2499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3127,7 +2522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:10">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3153,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:10">
+    <row r="39" spans="1:11" ht="33">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3179,7 +2574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" ht="82.5" hidden="1" spans="1:11">
+    <row r="40" spans="1:11" ht="82.5" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3211,7 +2606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:10">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3237,7 +2632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3266,7 +2661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:10">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3292,7 +2687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" ht="49.5" hidden="1" spans="1:10">
+    <row r="44" spans="1:11" ht="49.5" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3318,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" ht="33" hidden="1" spans="1:10">
+    <row r="45" spans="1:11" ht="33" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3344,7 +2739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3370,7 +2765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="33" hidden="1" spans="1:10">
+    <row r="47" spans="1:11" ht="33" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3396,7 +2791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" ht="82.5" spans="1:10">
+    <row r="48" spans="1:11" ht="82.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3422,7 +2817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" ht="33" spans="1:10">
+    <row r="49" spans="1:10" ht="33">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3451,7 +2846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" ht="33" spans="1:10">
+    <row r="50" spans="1:10" ht="33">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3477,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" ht="33" hidden="1" spans="1:10">
+    <row r="51" spans="1:10" ht="33" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3500,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3549,7 +2944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3575,7 +2970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3598,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" ht="231" spans="1:10">
+    <row r="56" spans="1:10" ht="231">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3647,7 +3042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" ht="33" hidden="1" spans="1:10">
+    <row r="58" spans="1:10" ht="33" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3756,7 +3151,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3916,22 +3311,21 @@
       <c r="G69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H69" s="2"/>
       <c r="J69" s="3" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L69">
+  <autoFilter ref="A1:L69" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="equal" val="doing"/>
-        <customFilter operator="equal" val="waiting"/>
-      </customFilters>
+      <filters>
+        <filter val="doing"/>
+        <filter val="waiting"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD069C5-CE3C-446B-9855-D3BA0627D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76B73A-7AD1-482B-9450-412D03FD6A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="211">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -696,14 +696,7 @@
     <t>lodas_register工程修复</t>
   </si>
   <si>
-    <t>2021/11/12：使用tools中的pcie_controller，只有一个exe</t>
-  </si>
-  <si>
     <t>win10</t>
-  </si>
-  <si>
-    <t>2021/10/18：实现只有一个exe，不需要安装
-2021/10/19：界面增加Log</t>
   </si>
   <si>
     <t>shading功能无效</t>
@@ -782,76 +775,77 @@
     <t>输出全部laser review图像并保存预开发</t>
   </si>
   <si>
+    <t>增加Log拷贝/导出功能</t>
+  </si>
+  <si>
+    <t>方便用户操作，无需手动找log目录</t>
+  </si>
+  <si>
+    <t>王さん</t>
+  </si>
+  <si>
+    <t>增加Log在程序中可以直接显示的窗体</t>
+  </si>
+  <si>
+    <t>用RichTextbox来显示，实时滚动到最后一行。</t>
+  </si>
+  <si>
+    <t>增加Error号</t>
+  </si>
+  <si>
+    <t>在右上角加上Error号显示，这个功能要在UI调整后增加</t>
+  </si>
+  <si>
+    <t>加强不同模式/身份下不同功能的使用权限的设计</t>
+  </si>
+  <si>
+    <t>划分好不同模式/身份下可使用的权限，主要是配置和参数以及菜单按钮的置灰</t>
+  </si>
+  <si>
+    <t>Reivew界面显示传感器成图突破8bit限制</t>
+  </si>
+  <si>
+    <t>用双色/多色/HSV等方式突破原灰度图像8bit的限制</t>
+  </si>
+  <si>
+    <t>优化BSFS的光高取值的问题</t>
+  </si>
+  <si>
+    <t>优化BS和FS仅靠slice取光高的算法</t>
+  </si>
+  <si>
+    <t>加强Log窗体的筛选显示功能</t>
+  </si>
+  <si>
+    <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
+  </si>
+  <si>
+    <t>only BS增加</t>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2021/11/26:已经上库
+2021/10/18：实现只有一个exe，不需要安装
+2021/10/19：界面增加Log</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2021/11/12：使用tools中的RegController，只有一个exe</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>laser review的图像，通过灰度调节，获取slice</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>灰度调节的值，换算成slice的值，把</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>值标在旁边</t>
-    </r>
-  </si>
-  <si>
-    <t>增加Log拷贝/导出功能</t>
-  </si>
-  <si>
-    <t>方便用户操作，无需手动找log目录</t>
-  </si>
-  <si>
-    <t>王さん</t>
-  </si>
-  <si>
-    <t>增加Log在程序中可以直接显示的窗体</t>
-  </si>
-  <si>
-    <t>用RichTextbox来显示，实时滚动到最后一行。</t>
-  </si>
-  <si>
-    <t>增加Error号</t>
-  </si>
-  <si>
-    <t>在右上角加上Error号显示，这个功能要在UI调整后增加</t>
-  </si>
-  <si>
-    <t>加强不同模式/身份下不同功能的使用权限的设计</t>
-  </si>
-  <si>
-    <t>划分好不同模式/身份下可使用的权限，主要是配置和参数以及菜单按钮的置灰</t>
-  </si>
-  <si>
-    <t>Reivew界面显示传感器成图突破8bit限制</t>
-  </si>
-  <si>
-    <t>用双色/多色/HSV等方式突破原灰度图像8bit的限制</t>
-  </si>
-  <si>
-    <t>优化BSFS的光高取值的问题</t>
-  </si>
-  <si>
-    <t>优化BS和FS仅靠slice取光高的算法</t>
-  </si>
-  <si>
-    <t>加强Log窗体的筛选显示功能</t>
-  </si>
-  <si>
-    <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
-  </si>
-  <si>
-    <t>only BS增加</t>
-  </si>
-  <si>
-    <t>done</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>灰度调节的值，换算成slice的值，把值标在旁边</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -860,7 +854,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -886,6 +880,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,7 +920,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1433,8 +1429,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2013,7 +2009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="33" hidden="1">
+    <row r="29" spans="1:11" ht="33">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="33">
+    <row r="49" spans="1:10" ht="49.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2825,13 +2821,13 @@
         <v>166</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>15</v>
@@ -2840,10 +2836,10 @@
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="33">
@@ -2851,16 +2847,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>14</v>
@@ -2877,13 +2873,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>14</v>
@@ -2900,16 +2896,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>14</v>
@@ -2926,13 +2922,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>58</v>
@@ -2949,13 +2945,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>14</v>
@@ -2964,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>17</v>
@@ -2975,7 +2971,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>43</v>
@@ -2998,10 +2994,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>38</v>
@@ -3024,13 +3020,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
@@ -3047,10 +3043,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>38</v>
@@ -3073,16 +3069,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>14</v>
@@ -3099,7 +3095,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>40</v>
@@ -3110,10 +3106,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>38</v>
@@ -3131,27 +3127,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3159,10 +3155,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>38</v>
@@ -3182,16 +3178,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>15</v>
@@ -3205,10 +3201,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>38</v>
@@ -3228,10 +3224,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>38</v>
@@ -3251,10 +3247,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>38</v>
@@ -3274,10 +3270,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>38</v>
@@ -3292,12 +3288,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>38</v>
@@ -3312,7 +3308,7 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3320,6 +3316,7 @@
     <filterColumn colId="9">
       <filters>
         <filter val="doing"/>
+        <filter val="hold"/>
         <filter val="waiting"/>
       </filters>
     </filterColumn>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76B73A-7AD1-482B-9450-412D03FD6A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -92,7 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>通过修改recipe实现，目前暂不修改代码</t>
     </r>
@@ -115,7 +109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>e</t>
     </r>
@@ -129,7 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">可能是lodas.ini中的S_RATIO设置过大导致，
 如果是100的话，S大，加速度瞬间可能过大，
@@ -149,7 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0的话，加速度是不变的</t>
     </r>
@@ -169,7 +163,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">通过S_RATIO的修改，以及加速度的保护值加大，基本可以解决
 </t>
@@ -196,7 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:现场解决时问题未复现，暂时先挂起</t>
     </r>
@@ -265,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
 2021/10/20：
@@ -276,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>必</t>
     </r>
@@ -284,7 +278,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>现条件：第一次打开时没有选择merge，或者merge使用的distance是10，然后修改为180，保存但没有重新打开，而直接使用
 问题是RecipeParameter::Load只调用一次
@@ -696,7 +690,15 @@
     <t>lodas_register工程修复</t>
   </si>
   <si>
+    <t>2021/11/12：使用tools中的RegController，只有一个exe</t>
+  </si>
+  <si>
     <t>win10</t>
+  </si>
+  <si>
+    <t>2021/11/26:已经上库
+2021/10/18：实现只有一个exe，不需要安装
+2021/10/19：界面增加Log</t>
   </si>
   <si>
     <t>shading功能无效</t>
@@ -775,6 +777,12 @@
     <t>输出全部laser review图像并保存预开发</t>
   </si>
   <si>
+    <t>laser review的图像，通过灰度调节，获取slice</t>
+  </si>
+  <si>
+    <t>灰度调节的值，换算成slice的值，把值标在旁边</t>
+  </si>
+  <si>
     <t>增加Log拷贝/导出功能</t>
   </si>
   <si>
@@ -823,65 +831,189 @@
     <t>only BS增加</t>
   </si>
   <si>
-    <t>done</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>2021/11/26:已经上库
-2021/10/18：实现只有一个exe，不需要安装
-2021/10/19：界面增加Log</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>2021/11/12：使用tools中的RegController，只有一个exe</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>laser review的图像，通过灰度调节，获取slice</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>灰度调节的值，换算成slice的值，把值标在旁边</t>
-    <phoneticPr fontId="5"/>
+    <t>硬盘Raid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,23 +1022,202 @@
       <name val="Yu Gothic"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -914,9 +1225,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -947,17 +1500,61 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1215,19 +1812,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
@@ -1274,21 +1871,22 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K3"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="55.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1296,7 +1894,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1328,7 +1926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34.5">
+    <row r="2" ht="33" spans="2:10">
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="53.25">
+    <row r="3" ht="51.75" spans="2:7">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="18.75" spans="2:7">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1397,40 +1995,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34.5">
+    <row r="6" ht="33" spans="2:2">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34.5">
+    <row r="7" ht="33" spans="2:2">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" ht="16.5" spans="2:2">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1487,7 +2089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" hidden="1">
+    <row r="2" ht="33" hidden="1" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1520,7 +2122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33">
+    <row r="3" ht="33" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1546,7 +2148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="198" hidden="1">
+    <row r="4" ht="198" hidden="1" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1575,7 +2177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1604,7 +2206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" hidden="1" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1634,7 +2236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="33">
+    <row r="7" ht="33" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1663,7 +2265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="66" hidden="1">
+    <row r="8" ht="66" hidden="1" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1690,7 +2292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" hidden="1" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1721,7 +2323,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" hidden="1" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1753,7 +2355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" hidden="1" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1785,7 +2387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" hidden="1" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1817,7 +2419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" hidden="1" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1849,7 +2451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" hidden="1" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1881,7 +2483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" hidden="1" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1913,7 +2515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" hidden="1" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1945,7 +2547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" hidden="1" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1977,7 +2579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" hidden="1" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2009,7 +2611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2038,7 +2640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" hidden="1" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2070,7 +2672,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2099,7 +2701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="33" hidden="1">
+    <row r="22" ht="33" hidden="1" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2128,7 +2730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2157,7 +2759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2183,7 +2785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2206,7 +2808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2229,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="33" hidden="1">
+    <row r="27" ht="33" hidden="1" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2252,7 +2854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="66" hidden="1">
+    <row r="28" ht="66" hidden="1" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2281,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="33">
+    <row r="29" ht="33" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2307,7 +2909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" hidden="1" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2336,7 +2938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2362,7 +2964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2388,7 +2990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2414,7 +3016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="66">
+    <row r="34" ht="66" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2440,7 +3042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="313.5">
+    <row r="35" ht="313.5" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2469,7 +3071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2495,7 +3097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" hidden="1" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2518,7 +3120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" hidden="1" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2544,7 +3146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="33">
+    <row r="39" ht="33" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2570,7 +3172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="82.5" hidden="1">
+    <row r="40" ht="82.5" hidden="1" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2602,7 +3204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" hidden="1" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2628,7 +3230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2657,7 +3259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" hidden="1" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2683,7 +3285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="49.5" hidden="1">
+    <row r="44" ht="49.5" hidden="1" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2709,7 +3311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="33" hidden="1">
+    <row r="45" ht="33" hidden="1" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2735,7 +3337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2761,7 +3363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="33" hidden="1">
+    <row r="47" ht="33" hidden="1" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2787,7 +3389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="82.5">
+    <row r="48" ht="82.5" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2813,7 +3415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="49.5">
+    <row r="49" ht="49.5" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2821,13 +3423,13 @@
         <v>166</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>15</v>
@@ -2836,27 +3438,27 @@
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="33" spans="1:10">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>14</v>
@@ -2868,18 +3470,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="33" hidden="1">
+    <row r="51" ht="33" hidden="1" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>14</v>
@@ -2891,21 +3493,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" hidden="1" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>14</v>
@@ -2922,13 +3524,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>58</v>
@@ -2940,18 +3542,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" hidden="1" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>14</v>
@@ -2960,18 +3562,18 @@
         <v>15</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" hidden="1" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>43</v>
@@ -2989,15 +3591,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="231">
+    <row r="56" ht="231" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>38</v>
@@ -3020,13 +3622,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
@@ -3038,15 +3640,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="33" hidden="1">
+    <row r="58" ht="33" hidden="1" spans="1:10">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>38</v>
@@ -3069,16 +3671,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>14</v>
@@ -3095,7 +3697,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>40</v>
@@ -3106,10 +3708,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>38</v>
@@ -3121,33 +3723,33 @@
         <v>14</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" hidden="1" spans="1:10">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3155,10 +3757,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>38</v>
@@ -3178,16 +3780,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>15</v>
@@ -3201,10 +3803,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>38</v>
@@ -3224,10 +3826,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>38</v>
@@ -3247,10 +3849,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>38</v>
@@ -3270,10 +3872,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>38</v>
@@ -3288,12 +3890,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" hidden="1" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>38</v>
@@ -3308,21 +3910,38 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L69" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:L69">
     <filterColumn colId="9">
       <filters>
+        <filter val="hold"/>
         <filter val="doing"/>
-        <filter val="hold"/>
         <filter val="waiting"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC34700-6EC8-4B7A-9BE6-5B7572A09979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18465" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="210">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -86,7 +92,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>通过修改recipe实现，目前暂不修改代码</t>
     </r>
@@ -109,7 +115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -123,7 +129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">可能是lodas.ini中的S_RATIO设置过大导致，
 如果是100的话，S大，加速度瞬间可能过大，
@@ -143,7 +149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0的话，加速度是不变的</t>
     </r>
@@ -163,7 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">通过S_RATIO的修改，以及加速度的保护值加大，基本可以解决
 </t>
@@ -190,7 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:现场解决时问题未复现，暂时先挂起</t>
     </r>
@@ -259,7 +265,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2021/11/2:修改，但没有重新打开recipe时出现问题，已经修改合入，待发布
 2021/10/20：
@@ -270,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>必</t>
     </r>
@@ -278,7 +284,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>现条件：第一次打开时没有选择merge，或者merge使用的distance是10，然后修改为180，保存但没有重新打开，而直接使用
 问题是RecipeParameter::Load只调用一次
@@ -837,183 +843,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Yu Gothic"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,202 +879,23 @@
       <name val="Yu Gothic"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1225,255 +903,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1500,61 +936,17 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1812,19 +1204,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
@@ -1871,22 +1263,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="55.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1894,7 +1285,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +1317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="2:10">
+    <row r="2" spans="1:10" ht="34.5">
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="51.75" spans="2:7">
+    <row r="3" spans="1:10" ht="53.25">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1975,7 +1366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="2:7">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1995,44 +1386,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:2">
+    <row r="5" spans="1:10">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="2:2">
+    <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="2:2">
+    <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:2">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2089,7 +1479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="33" hidden="1" spans="1:11">
+    <row r="2" spans="1:12" ht="33" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2122,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:10">
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2148,7 +1538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="198" hidden="1" spans="1:10">
+    <row r="4" spans="1:12" ht="198" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2177,7 +1567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2206,7 +1596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:11">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2236,7 +1626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:10">
+    <row r="7" spans="1:12" ht="33">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2265,7 +1655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" ht="66" hidden="1" spans="1:10">
+    <row r="8" spans="1:12" ht="66" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2292,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2323,7 +1713,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" hidden="1" spans="1:11">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2355,7 +1745,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:11">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2387,7 +1777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:11">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2419,7 +1809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:11">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2451,7 +1841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:11">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2483,7 +1873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:11">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2515,7 +1905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:11">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2547,7 +1937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2579,7 +1969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2611,7 +2001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2640,7 +2030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2672,7 +2062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:10">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2701,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="33" hidden="1" spans="1:10">
+    <row r="22" spans="1:11" ht="33" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2730,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:10">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2759,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:10">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2785,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:10">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2808,7 +2198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:10">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2831,7 +2221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="33" hidden="1" spans="1:10">
+    <row r="27" spans="1:11" ht="33" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2854,7 +2244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" ht="66" hidden="1" spans="1:10">
+    <row r="28" spans="1:11" ht="66" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2883,7 +2273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:10">
+    <row r="29" spans="1:11" ht="33">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2909,7 +2299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:10">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2938,7 +2328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2964,7 +2354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2990,7 +2380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3016,7 +2406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" ht="66" spans="1:10">
+    <row r="34" spans="1:11" ht="66">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3042,7 +2432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" ht="313.5" spans="1:10">
+    <row r="35" spans="1:11" ht="313.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3071,7 +2461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3097,7 +2487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3120,7 +2510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:10">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3146,7 +2536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:10">
+    <row r="39" spans="1:11" ht="33">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3172,7 +2562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" ht="82.5" hidden="1" spans="1:11">
+    <row r="40" spans="1:11" ht="82.5" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3204,7 +2594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:10">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3230,7 +2620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3259,7 +2649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:10">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3285,7 +2675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" ht="49.5" hidden="1" spans="1:10">
+    <row r="44" spans="1:11" ht="49.5" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3311,7 +2701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" ht="33" hidden="1" spans="1:10">
+    <row r="45" spans="1:11" ht="33" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3337,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3363,7 +2753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="33" hidden="1" spans="1:10">
+    <row r="47" spans="1:11" ht="33" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3389,7 +2779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" ht="82.5" spans="1:10">
+    <row r="48" spans="1:11" ht="82.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3415,7 +2805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" ht="49.5" spans="1:10">
+    <row r="49" spans="1:10" ht="49.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3444,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" ht="33" spans="1:10">
+    <row r="50" spans="1:10" ht="33">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3470,7 +2860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" ht="33" hidden="1" spans="1:10">
+    <row r="51" spans="1:10" ht="33" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3493,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3542,7 +2932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3568,7 +2958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3591,7 +2981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" ht="231" spans="1:10">
+    <row r="56" spans="1:10" ht="231">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3640,7 +3030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" ht="33" hidden="1" spans="1:10">
+    <row r="58" spans="1:10" ht="33" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3699,6 +3089,15 @@
       <c r="B60" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="D60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J60" s="3" t="s">
         <v>40</v>
       </c>
@@ -3729,7 +3128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3890,7 +3289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3931,17 +3330,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L69">
+  <autoFilter ref="A1:L69" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="9">
       <filters>
+        <filter val="doing"/>
         <filter val="hold"/>
-        <filter val="doing"/>
         <filter val="waiting"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC34700-6EC8-4B7A-9BE6-5B7572A09979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E19EBAC-D0BB-4BC1-8816-7BE7D07C9D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12915" yWindow="5100" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021_小机软件'!$A$1:$L$69</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -780,64 +789,65 @@
     <t>BI8-2</t>
   </si>
   <si>
+    <t>laser review的图像，通过灰度调节，获取slice</t>
+  </si>
+  <si>
+    <t>灰度调节的值，换算成slice的值，把值标在旁边</t>
+  </si>
+  <si>
+    <t>增加Log拷贝/导出功能</t>
+  </si>
+  <si>
+    <t>方便用户操作，无需手动找log目录</t>
+  </si>
+  <si>
+    <t>王さん</t>
+  </si>
+  <si>
+    <t>增加Log在程序中可以直接显示的窗体</t>
+  </si>
+  <si>
+    <t>用RichTextbox来显示，实时滚动到最后一行。</t>
+  </si>
+  <si>
+    <t>增加Error号</t>
+  </si>
+  <si>
+    <t>在右上角加上Error号显示，这个功能要在UI调整后增加</t>
+  </si>
+  <si>
+    <t>加强不同模式/身份下不同功能的使用权限的设计</t>
+  </si>
+  <si>
+    <t>划分好不同模式/身份下可使用的权限，主要是配置和参数以及菜单按钮的置灰</t>
+  </si>
+  <si>
+    <t>Reivew界面显示传感器成图突破8bit限制</t>
+  </si>
+  <si>
+    <t>用双色/多色/HSV等方式突破原灰度图像8bit的限制</t>
+  </si>
+  <si>
+    <t>优化BSFS的光高取值的问题</t>
+  </si>
+  <si>
+    <t>优化BS和FS仅靠slice取光高的算法</t>
+  </si>
+  <si>
+    <t>加强Log窗体的筛选显示功能</t>
+  </si>
+  <si>
+    <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
+  </si>
+  <si>
+    <t>only BS增加</t>
+  </si>
+  <si>
+    <t>硬盘Raid</t>
+  </si>
+  <si>
     <t>输出全部laser review图像并保存预开发</t>
-  </si>
-  <si>
-    <t>laser review的图像，通过灰度调节，获取slice</t>
-  </si>
-  <si>
-    <t>灰度调节的值，换算成slice的值，把值标在旁边</t>
-  </si>
-  <si>
-    <t>增加Log拷贝/导出功能</t>
-  </si>
-  <si>
-    <t>方便用户操作，无需手动找log目录</t>
-  </si>
-  <si>
-    <t>王さん</t>
-  </si>
-  <si>
-    <t>增加Log在程序中可以直接显示的窗体</t>
-  </si>
-  <si>
-    <t>用RichTextbox来显示，实时滚动到最后一行。</t>
-  </si>
-  <si>
-    <t>增加Error号</t>
-  </si>
-  <si>
-    <t>在右上角加上Error号显示，这个功能要在UI调整后增加</t>
-  </si>
-  <si>
-    <t>加强不同模式/身份下不同功能的使用权限的设计</t>
-  </si>
-  <si>
-    <t>划分好不同模式/身份下可使用的权限，主要是配置和参数以及菜单按钮的置灰</t>
-  </si>
-  <si>
-    <t>Reivew界面显示传感器成图突破8bit限制</t>
-  </si>
-  <si>
-    <t>用双色/多色/HSV等方式突破原灰度图像8bit的限制</t>
-  </si>
-  <si>
-    <t>优化BSFS的光高取值的问题</t>
-  </si>
-  <si>
-    <t>优化BS和FS仅靠slice取光高的算法</t>
-  </si>
-  <si>
-    <t>加强Log窗体的筛选显示功能</t>
-  </si>
-  <si>
-    <t>后期加入Error号后，可以做Log的分类和筛选功能。</t>
-  </si>
-  <si>
-    <t>only BS增加</t>
-  </si>
-  <si>
-    <t>硬盘Raid</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -845,7 +855,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -871,6 +881,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,7 +921,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1419,10 +1431,10 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3087,7 +3099,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>38</v>
@@ -3107,10 +3119,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>38</v>
@@ -3133,16 +3145,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>15</v>
@@ -3156,10 +3168,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>38</v>
@@ -3179,16 +3191,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>15</v>
@@ -3202,10 +3214,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>38</v>
@@ -3225,10 +3237,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>38</v>
@@ -3248,10 +3260,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>38</v>
@@ -3271,10 +3283,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>38</v>
@@ -3294,7 +3306,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>38</v>
@@ -3317,7 +3329,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>38</v>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E19EBAC-D0BB-4BC1-8816-7BE7D07C9D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E4263C-FA67-4FB4-BFA0-DA068B389954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="5100" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="210">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -92,7 +92,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>2021/10/15：可以</t>
     </r>
@@ -115,7 +116,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>non</t>
     </r>
@@ -149,7 +151,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>如果是</t>
     </r>
@@ -169,7 +172,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>2021/10/15：</t>
     </r>
@@ -196,7 +200,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>2021/10/18</t>
     </r>
@@ -843,10 +848,11 @@
     <t>only BS增加</t>
   </si>
   <si>
+    <t>输出全部laser review图像并保存预开发</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>硬盘Raid</t>
-  </si>
-  <si>
-    <t>输出全部laser review图像并保存预开发</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -861,7 +867,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -880,7 +886,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -889,11 +895,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1228,7 +1235,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
@@ -1289,7 +1296,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="55.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1297,7 +1304,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="18.75">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1398,22 +1405,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34.5">
+    <row r="6" spans="1:10" ht="33">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34.5">
+    <row r="7" spans="1:10" ht="33">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16.5">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1431,10 +1438,10 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3099,7 +3106,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>38</v>
@@ -3329,13 +3336,16 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>49</v>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ITS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E4263C-FA67-4FB4-BFA0-DA068B389954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF16F605-CB2E-4476-8091-0A3A11619802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2021_小机软件" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021_小机软件'!$A$1:$L$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021_小机软件'!$A$1:$L$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="213">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -855,6 +855,18 @@
     <t>硬盘Raid</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>检查过程中，打开reviewform，缺陷列表中为空</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>缺陷列表应该实时更新</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +879,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -886,7 +898,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -900,7 +912,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1231,11 +1243,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
@@ -1296,7 +1308,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="55.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1304,7 +1316,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1405,22 +1417,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:10">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33">
+    <row r="6" spans="1:10" ht="34.5">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33">
+    <row r="7" spans="1:10" ht="34.5">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1434,14 +1446,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1498,7 +1509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" hidden="1">
+    <row r="2" spans="1:12" ht="33">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="198" hidden="1">
+    <row r="4" spans="1:12" ht="198">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1615,7 +1626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1674,7 +1685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="66" hidden="1">
+    <row r="8" spans="1:12" ht="66">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1732,7 +1743,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1796,7 +1807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1956,7 +1967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1988,7 +1999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2049,7 +2060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2081,7 +2092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2110,7 +2121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="33" hidden="1">
+    <row r="22" spans="1:11" ht="33">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2139,7 +2150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2168,7 +2179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2194,7 +2205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2217,7 +2228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2240,7 +2251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="33" hidden="1">
+    <row r="27" spans="1:11" ht="33">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2263,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="66" hidden="1">
+    <row r="28" spans="1:11" ht="66">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2318,7 +2329,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2529,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="82.5" hidden="1">
+    <row r="40" spans="1:11" ht="82.5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2613,7 +2624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2694,7 +2705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="49.5" hidden="1">
+    <row r="44" spans="1:11" ht="49.5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="33" hidden="1">
+    <row r="45" spans="1:11" ht="33">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2772,7 +2783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="33" hidden="1">
+    <row r="47" spans="1:11" ht="33">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="33" hidden="1">
+    <row r="51" spans="1:10" ht="33">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2902,7 +2913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2951,7 +2962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3049,7 +3060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="33" hidden="1">
+    <row r="58" spans="1:10" ht="33">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3147,7 +3158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3287,7 +3298,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>205</v>
@@ -3308,9 +3319,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>207</v>
@@ -3333,7 +3344,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>209</v>
@@ -3351,16 +3362,31 @@
         <v>49</v>
       </c>
     </row>
+    <row r="71" spans="1:10" ht="33">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L69" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="doing"/>
-        <filter val="hold"/>
-        <filter val="waiting"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L71" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF16F605-CB2E-4476-8091-0A3A11619802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A19986-1160-46B4-887C-F26C0336B06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="221">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -865,6 +865,39 @@
   </si>
   <si>
     <t>缺陷列表应该实时更新</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1、	AutoReviw选中后，且clssify中Top n选定锁定的最强信号particle的个数后，扫描结束后，
+画面上Autoreiw最终呈现的点数和TOP N的个数不吻合。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Autoreiw最终呈现的点数和TOP N的个数不吻合。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>能否设置上作业员、管理员、工程师权限</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QZ6025对应时不需要吸气，虽然手动关了电磁阀，但是当点了SP,轴移动到开始位置后，电磁阀再次自动开启。         </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么12寸片子时，设定检查范围与实际不符？Inspect margin R=3.4, 界面上circle显示290 </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>hoya青岛</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>张小龙</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1243,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1446,13 +1479,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3385,6 +3418,56 @@
         <v>39</v>
       </c>
     </row>
+    <row r="72" spans="1:10" ht="49.5">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="49.5">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="33">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L71" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="5"/>

--- a/ITS.xlsx
+++ b/ITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A19986-1160-46B4-887C-F26C0336B06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64C5CB9-614E-4F25-B569-A4EA609901BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="227">
   <si>
     <t># Introduction 
 ITS: issue tracking system of LAZIN
@@ -898,6 +898,30 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>需要修改AI50的天地坐标</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>增加CLAMP控制</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AI robo操作scan结束增加关闭laser和power操作</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>增加一个robo position的按键</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>去掉对src dst不能是同一个设备的限制</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>增加可以stop robot的功能</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -951,12 +975,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -971,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -998,6 +1028,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,13 +1513,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3468,6 +3502,54 @@
         <v>217</v>
       </c>
     </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L71" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="5"/>
